--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_1E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4802 +417,4122 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>90.09999999999999</v>
+        <v>110.7</v>
       </c>
       <c r="B2">
-        <v>38792.1444706566</v>
+        <v>48514.35338265539</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1501.756571745252</v>
       </c>
       <c r="D2">
-        <v>745.3941809121125</v>
+        <v>43587.93073855307</v>
       </c>
       <c r="E2">
-        <v>667.4585579076479</v>
+        <v>2423.411734719403</v>
       </c>
       <c r="F2">
-        <v>279.1511791262976</v>
+        <v>527.6969896450729</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>113.3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>46925.07692142777</v>
       </c>
       <c r="C3">
-        <v>1491.428884449651</v>
+        <v>2298.867206116188</v>
       </c>
       <c r="D3">
-        <v>2060.694466604933</v>
+        <v>41812.58882003256</v>
       </c>
       <c r="E3">
-        <v>454.8519362673305</v>
+        <v>2171.360759687815</v>
       </c>
       <c r="F3">
-        <v>539.9094639526928</v>
+        <v>674.7668320619347</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>115.8</v>
       </c>
       <c r="B4">
-        <v>8930</v>
+        <v>34753.84955486267</v>
       </c>
       <c r="C4">
-        <v>1601.428884449651</v>
+        <v>794.9351237805504</v>
       </c>
       <c r="D4">
-        <v>1890.694466604933</v>
+        <v>37638.22159068589</v>
       </c>
       <c r="E4">
-        <v>1444.851936267331</v>
+        <v>1455.927129849747</v>
       </c>
       <c r="F4">
-        <v>989.9094639526928</v>
+        <v>572.3339882319949</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>118.1</v>
       </c>
       <c r="B5">
-        <v>11760</v>
+        <v>30248.72037762282</v>
       </c>
       <c r="C5">
-        <v>2311.428884449651</v>
+        <v>398.9176080317702</v>
       </c>
       <c r="D5">
-        <v>2710.694466604933</v>
+        <v>35365.80373968699</v>
       </c>
       <c r="E5">
-        <v>1094.851936267331</v>
+        <v>1403.728190398724</v>
       </c>
       <c r="F5">
-        <v>819.9094639526928</v>
+        <v>540.8957719084499</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>90.09999999999999</v>
+        <v>120.6</v>
       </c>
       <c r="B6">
-        <v>7312.144470656593</v>
+        <v>27927.49301105772</v>
       </c>
       <c r="C6">
-        <v>3070</v>
+        <v>374.9855256961337</v>
       </c>
       <c r="D6">
-        <v>2915.394180912112</v>
+        <v>34891.43651034032</v>
       </c>
       <c r="E6">
-        <v>1617.458557907648</v>
+        <v>638.2945605606592</v>
       </c>
       <c r="F6">
-        <v>1199.151179126298</v>
+        <v>868.4629280785092</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>90.09999999999999</v>
+        <v>122.7</v>
       </c>
       <c r="B7">
-        <v>10582.14447065659</v>
+        <v>24108.46202314302</v>
       </c>
       <c r="C7">
-        <v>3530</v>
+        <v>456.8825765341944</v>
       </c>
       <c r="D7">
-        <v>4865.394180912112</v>
+        <v>33030.96803768913</v>
       </c>
       <c r="E7">
-        <v>1807.458557907648</v>
+        <v>2239.33031149668</v>
       </c>
       <c r="F7">
-        <v>969.1511791262976</v>
+        <v>608.0193392613592</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>90.09999999999999</v>
+        <v>124.8</v>
       </c>
       <c r="B8">
-        <v>19592.14447065659</v>
+        <v>25409.43103522833</v>
       </c>
       <c r="C8">
-        <v>4340</v>
+        <v>318.7796273722561</v>
       </c>
       <c r="D8">
-        <v>4175.394180912112</v>
+        <v>33420.49956503794</v>
       </c>
       <c r="E8">
-        <v>2287.458557907648</v>
+        <v>1160.366062432705</v>
       </c>
       <c r="F8">
-        <v>939.1511791262976</v>
+        <v>667.5757504442099</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>90.09999999999999</v>
+        <v>127.2</v>
       </c>
       <c r="B9">
-        <v>12912.14447065659</v>
+        <v>23426.25276332586</v>
       </c>
       <c r="C9">
-        <v>3280</v>
+        <v>1903.80482833004</v>
       </c>
       <c r="D9">
-        <v>4445.394180912112</v>
+        <v>35197.10702486514</v>
       </c>
       <c r="E9">
-        <v>2117.458557907648</v>
+        <v>1501.54977778816</v>
       </c>
       <c r="F9">
-        <v>1189.151179126298</v>
+        <v>625.6402203674667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>90.2</v>
+        <v>129.3</v>
       </c>
       <c r="B10">
-        <v>14184.28894131307</v>
+        <v>31787.22177541128</v>
       </c>
       <c r="C10">
-        <v>5608.571115550349</v>
+        <v>1335.701879168108</v>
       </c>
       <c r="D10">
-        <v>5330.093895219305</v>
+        <v>35836.63855221396</v>
       </c>
       <c r="E10">
-        <v>2190.065179547961</v>
+        <v>1022.58552872418</v>
       </c>
       <c r="F10">
-        <v>988.3928942999028</v>
+        <v>505.1966315503166</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>90.09999999999999</v>
+        <v>131.5</v>
       </c>
       <c r="B11">
-        <v>6412.144470656593</v>
+        <v>31680.14169283395</v>
       </c>
       <c r="C11">
-        <v>6320</v>
+        <v>1478.641646712748</v>
       </c>
       <c r="D11">
-        <v>4935.394180912112</v>
+        <v>37165.1953903889</v>
       </c>
       <c r="E11">
-        <v>2397.458557907648</v>
+        <v>687.0039344666816</v>
       </c>
       <c r="F11">
-        <v>1409.151179126298</v>
+        <v>594.255728979969</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>90.09999999999999</v>
+        <v>133.7</v>
       </c>
       <c r="B12">
-        <v>9072.144470656593</v>
+        <v>27643.06161025674</v>
       </c>
       <c r="C12">
-        <v>6800</v>
+        <v>1391.581414257389</v>
       </c>
       <c r="D12">
-        <v>4835.394180912112</v>
+        <v>39983.75222856384</v>
       </c>
       <c r="E12">
-        <v>2727.458557907648</v>
+        <v>1301.422340209183</v>
       </c>
       <c r="F12">
-        <v>1329.151179126298</v>
+        <v>703.3148264096217</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>90.09999999999999</v>
+        <v>136.2</v>
       </c>
       <c r="B13">
-        <v>5412.144470656593</v>
+        <v>33551.83424369164</v>
       </c>
       <c r="C13">
-        <v>6250</v>
+        <v>1117.649331921753</v>
       </c>
       <c r="D13">
-        <v>4085.394180912112</v>
+        <v>40689.3849992172</v>
       </c>
       <c r="E13">
-        <v>2287.458557907648</v>
+        <v>1675.988710371118</v>
       </c>
       <c r="F13">
-        <v>1159.151179126298</v>
+        <v>880.8819825796818</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>90.09999999999999</v>
+        <v>138.4</v>
       </c>
       <c r="B14">
-        <v>12192.14447065659</v>
+        <v>28824.75416111432</v>
       </c>
       <c r="C14">
-        <v>7220</v>
+        <v>3100.589099466384</v>
       </c>
       <c r="D14">
-        <v>4895.394180912112</v>
+        <v>42957.94183739214</v>
       </c>
       <c r="E14">
-        <v>1967.458557907648</v>
+        <v>1360.407116113616</v>
       </c>
       <c r="F14">
-        <v>1319.151179126298</v>
+        <v>469.9410800093338</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>90.2</v>
+        <v>141</v>
       </c>
       <c r="B15">
-        <v>2144.288941313065</v>
+        <v>42995.47769988669</v>
       </c>
       <c r="C15">
-        <v>8518.571115550349</v>
+        <v>2157.699733837328</v>
       </c>
       <c r="D15">
-        <v>5730.093895219305</v>
+        <v>44812.5999188716</v>
       </c>
       <c r="E15">
-        <v>3160.065179547961</v>
+        <v>1128.356141082028</v>
       </c>
       <c r="F15">
-        <v>1308.392894299903</v>
+        <v>637.0109224261961</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>90.2</v>
+        <v>143.2</v>
       </c>
       <c r="B16">
-        <v>7664.288941313065</v>
+        <v>39358.39761730937</v>
       </c>
       <c r="C16">
-        <v>9108.571115550349</v>
+        <v>1940.639501381967</v>
       </c>
       <c r="D16">
-        <v>5480.093895219305</v>
+        <v>43601.15675704654</v>
       </c>
       <c r="E16">
-        <v>2710.065179547961</v>
+        <v>902.7745468245287</v>
       </c>
       <c r="F16">
-        <v>1368.392894299903</v>
+        <v>736.0700198558486</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>90.2</v>
+        <v>145.5</v>
       </c>
       <c r="B17">
-        <v>12924.28894131307</v>
+        <v>44863.26844006953</v>
       </c>
       <c r="C17">
-        <v>9838.571115550349</v>
+        <v>1404.621985633179</v>
       </c>
       <c r="D17">
-        <v>5940.093895219305</v>
+        <v>40328.73890604761</v>
       </c>
       <c r="E17">
-        <v>3240.065179547961</v>
+        <v>1490.575607373507</v>
       </c>
       <c r="F17">
-        <v>1588.392894299903</v>
+        <v>724.6318035323036</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>90.2</v>
+        <v>147.8</v>
       </c>
       <c r="B18">
-        <v>5644.288941313065</v>
+        <v>42088.13926282968</v>
       </c>
       <c r="C18">
-        <v>9348.571115550349</v>
+        <v>1518.604469884391</v>
       </c>
       <c r="D18">
-        <v>5510.093895219305</v>
+        <v>33786.32105504872</v>
       </c>
       <c r="E18">
-        <v>3200.065179547961</v>
+        <v>898.3766679224843</v>
       </c>
       <c r="F18">
-        <v>1438.392894299903</v>
+        <v>853.1935872087577</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>90.2</v>
+        <v>150.4</v>
       </c>
       <c r="B19">
-        <v>3494.288941313065</v>
+        <v>33758.86280160195</v>
       </c>
       <c r="C19">
-        <v>11188.57111555035</v>
+        <v>1055.715104255327</v>
       </c>
       <c r="D19">
-        <v>7330.093895219305</v>
+        <v>29900.97913652818</v>
       </c>
       <c r="E19">
-        <v>3460.065179547961</v>
+        <v>1626.325692890893</v>
       </c>
       <c r="F19">
-        <v>1218.392894299903</v>
+        <v>670.2634296256205</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>90.2</v>
+        <v>152.7</v>
       </c>
       <c r="B20">
-        <v>6214.288941313065</v>
+        <v>23833.73362436211</v>
       </c>
       <c r="C20">
-        <v>10878.57111555035</v>
+        <v>619.6975885065476</v>
       </c>
       <c r="D20">
-        <v>6760.093895219305</v>
+        <v>21468.56128552926</v>
       </c>
       <c r="E20">
-        <v>2790.065179547961</v>
+        <v>1374.126753439874</v>
       </c>
       <c r="F20">
-        <v>1598.392894299903</v>
+        <v>568.8252133020756</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>90.2</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>10464.28894131307</v>
+        <v>16408.60444712226</v>
       </c>
       <c r="C21">
-        <v>11628.57111555035</v>
+        <v>993.6800727577593</v>
       </c>
       <c r="D21">
-        <v>7710.093895219305</v>
+        <v>17966.14343453034</v>
       </c>
       <c r="E21">
-        <v>3910.065179547961</v>
+        <v>1371.927813988852</v>
       </c>
       <c r="F21">
-        <v>1528.392894299903</v>
+        <v>607.3869969785305</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>90.3</v>
+        <v>157.6</v>
       </c>
       <c r="B22">
-        <v>4496.433411969541</v>
+        <v>17349.32798589452</v>
       </c>
       <c r="C22">
-        <v>11867.1422311007</v>
+        <v>1060.790707128694</v>
       </c>
       <c r="D22">
-        <v>16894.7936095265</v>
+        <v>14960.80151600981</v>
       </c>
       <c r="E22">
-        <v>3262.671801188279</v>
+        <v>699.8768389572601</v>
       </c>
       <c r="F22">
-        <v>1437.634609473508</v>
+        <v>1064.456839395392</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>90.5</v>
+        <v>159.9</v>
       </c>
       <c r="B23">
-        <v>15740.72235328249</v>
+        <v>13244.19880865468</v>
       </c>
       <c r="C23">
-        <v>13534.28446220139</v>
+        <v>374.7731913799053</v>
       </c>
       <c r="D23">
-        <v>27224.19303814089</v>
+        <v>11908.38366501089</v>
       </c>
       <c r="E23">
-        <v>4187.88504446891</v>
+        <v>807.677899506238</v>
       </c>
       <c r="F23">
-        <v>1446.118039820718</v>
+        <v>613.0186230718474</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>162.1</v>
       </c>
       <c r="B24">
-        <v>22151.44470656486</v>
+        <v>8597.118726077475</v>
       </c>
       <c r="C24">
-        <v>13887.14003995315</v>
+        <v>2337.712958924547</v>
       </c>
       <c r="D24">
-        <v>30917.69160967684</v>
+        <v>10496.94050318583</v>
       </c>
       <c r="E24">
-        <v>4380.918152670488</v>
+        <v>1062.09630524874</v>
       </c>
       <c r="F24">
-        <v>1652.326615688743</v>
+        <v>752.0777205014999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>91.7</v>
+        <v>164.4</v>
       </c>
       <c r="B25">
-        <v>26766.4560011603</v>
+        <v>7171.989548837519</v>
       </c>
       <c r="C25">
-        <v>15567.1378488056</v>
+        <v>1061.695443175759</v>
       </c>
       <c r="D25">
-        <v>40220.58960982716</v>
+        <v>9064.522652186908</v>
       </c>
       <c r="E25">
-        <v>6509.164504152697</v>
+        <v>1489.897365797717</v>
       </c>
       <c r="F25">
-        <v>2007.018621903979</v>
+        <v>890.639504177954</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>92.8</v>
+        <v>167.1</v>
       </c>
       <c r="B26">
-        <v>41740.04517838165</v>
+        <v>5144.663992947266</v>
       </c>
       <c r="C26">
-        <v>18491.42011985945</v>
+        <v>2259.848794253274</v>
       </c>
       <c r="D26">
-        <v>45182.28646720626</v>
+        <v>7208.20604449253</v>
       </c>
       <c r="E26">
-        <v>5167.837342196171</v>
+        <v>1011.229045572602</v>
       </c>
       <c r="F26">
-        <v>2398.677488813633</v>
+        <v>787.2120328416183</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>94.5</v>
+        <v>169.3</v>
       </c>
       <c r="B27">
-        <v>47616.50117954184</v>
+        <v>1407.583910370056</v>
       </c>
       <c r="C27">
-        <v>19287.1290842154</v>
+        <v>642.7885617979064</v>
       </c>
       <c r="D27">
-        <v>51592.18161042848</v>
+        <v>6386.76288266747</v>
       </c>
       <c r="E27">
-        <v>5022.149910081538</v>
+        <v>505.6474513151034</v>
       </c>
       <c r="F27">
-        <v>2415.786646764919</v>
+        <v>446.2711302712713</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>96.59999999999999</v>
+        <v>171.7</v>
       </c>
       <c r="B28">
-        <v>58541.53506332803</v>
+        <v>10934.40563846758</v>
       </c>
       <c r="C28">
-        <v>21877.12251077274</v>
+        <v>947.8137627556989</v>
       </c>
       <c r="D28">
-        <v>55670.87561087948</v>
+        <v>6193.370342494687</v>
       </c>
       <c r="E28">
-        <v>5126.888964528166</v>
+        <v>1276.831166670558</v>
       </c>
       <c r="F28">
-        <v>2229.862665410626</v>
+        <v>924.3356001945285</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>99.3</v>
+        <v>173.9</v>
       </c>
       <c r="B29">
-        <v>64509.43577105309</v>
+        <v>11217.32555589026</v>
       </c>
       <c r="C29">
-        <v>25618.5426306322</v>
+        <v>1700.753530300337</v>
       </c>
       <c r="D29">
-        <v>63517.76789717362</v>
+        <v>5541.927180669627</v>
       </c>
       <c r="E29">
-        <v>4097.267748816689</v>
+        <v>1261.249572413059</v>
       </c>
       <c r="F29">
-        <v>2409.388975097961</v>
+        <v>693.3946976241809</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>101.6</v>
+        <v>176.6</v>
       </c>
       <c r="B30">
-        <v>64518.75859615224</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>23255.67828829024</v>
+        <v>538.9068813778595</v>
       </c>
       <c r="D30">
-        <v>71675.861326239</v>
+        <v>3805.610572975231</v>
       </c>
       <c r="E30">
-        <v>4577.220046543952</v>
+        <v>1092.581252187947</v>
       </c>
       <c r="F30">
-        <v>2271.948424090877</v>
+        <v>629.9672262878453</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>104.8</v>
+        <v>178.8</v>
       </c>
       <c r="B31">
-        <v>74327.38165715979</v>
+        <v>8532.919917422681</v>
       </c>
       <c r="C31">
-        <v>19899.95398590144</v>
+        <v>1251.846648922485</v>
       </c>
       <c r="D31">
-        <v>74576.25218406906</v>
+        <v>3384.167411150171</v>
       </c>
       <c r="E31">
-        <v>4940.631939034054</v>
+        <v>746.9996579304452</v>
       </c>
       <c r="F31">
-        <v>2017.683309646238</v>
+        <v>949.0263237174978</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>107.7</v>
+        <v>181.5</v>
       </c>
       <c r="B32">
-        <v>68069.57130619779</v>
+        <v>11955.59436153242</v>
       </c>
       <c r="C32">
-        <v>17338.51633686159</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>76192.54389897759</v>
+        <v>3617.850803455789</v>
       </c>
       <c r="E32">
-        <v>5366.223966603207</v>
+        <v>708.3313377053373</v>
       </c>
       <c r="F32">
-        <v>1965.693049680784</v>
+        <v>845.5988523811621</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>110.7</v>
+        <v>183.8</v>
       </c>
       <c r="B33">
-        <v>71623.90542589227</v>
+        <v>10560.46518429258</v>
       </c>
       <c r="C33">
-        <v>15265.6498033721</v>
+        <v>523.9824842512116</v>
       </c>
       <c r="D33">
-        <v>72793.53532819331</v>
+        <v>4455.43295245686</v>
       </c>
       <c r="E33">
-        <v>4844.422615812679</v>
+        <v>466.1323982543149</v>
       </c>
       <c r="F33">
-        <v>1722.944504888935</v>
+        <v>654.1606360576172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>113.3</v>
+        <v>186.1</v>
       </c>
       <c r="B34">
-        <v>69779.66166296085</v>
+        <v>12765.33600705274</v>
       </c>
       <c r="C34">
-        <v>15998.4988076812</v>
+        <v>707.9649685024178</v>
       </c>
       <c r="D34">
-        <v>70645.72790018024</v>
+        <v>4003.015101457931</v>
       </c>
       <c r="E34">
-        <v>4572.194778460886</v>
+        <v>1013.933458803294</v>
       </c>
       <c r="F34">
-        <v>1863.229099402666</v>
+        <v>692.7224197340722</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>115.8</v>
+        <v>188.8</v>
       </c>
       <c r="B35">
-        <v>57363.27342937306</v>
+        <v>12288.01045116237</v>
       </c>
       <c r="C35">
-        <v>14432.77669643995</v>
+        <v>356.1183195799385</v>
       </c>
       <c r="D35">
-        <v>66113.22075785999</v>
+        <v>2376.698493763557</v>
       </c>
       <c r="E35">
-        <v>3837.360319468779</v>
+        <v>1135.265138578178</v>
       </c>
       <c r="F35">
-        <v>1754.271978742792</v>
+        <v>769.2949483977366</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>118.1</v>
+        <v>191.1</v>
       </c>
       <c r="B36">
-        <v>52632.5962544721</v>
+        <v>15012.88127392253</v>
       </c>
       <c r="C36">
-        <v>13979.912354098</v>
+        <v>600.1008038311429</v>
       </c>
       <c r="D36">
-        <v>63511.31418692536</v>
+        <v>1914.280642764628</v>
       </c>
       <c r="E36">
-        <v>3767.312617196041</v>
+        <v>1173.066199127156</v>
       </c>
       <c r="F36">
-        <v>1716.831427735708</v>
+        <v>637.8567320741917</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>120.6</v>
+        <v>193.4</v>
       </c>
       <c r="B37">
-        <v>50066.20802088421</v>
+        <v>10937.75209668269</v>
       </c>
       <c r="C37">
-        <v>13894.19024285675</v>
+        <v>84.08328808236183</v>
       </c>
       <c r="D37">
-        <v>62678.80704460511</v>
+        <v>3651.862791765714</v>
       </c>
       <c r="E37">
-        <v>2982.47815820393</v>
+        <v>1310.867259676134</v>
       </c>
       <c r="F37">
-        <v>2037.874307075833</v>
+        <v>1086.418515750647</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>122.7</v>
+        <v>196</v>
       </c>
       <c r="B38">
-        <v>46041.2419046704</v>
+        <v>6248.475635455063</v>
       </c>
       <c r="C38">
-        <v>13924.1836694141</v>
+        <v>1971.193922453291</v>
       </c>
       <c r="D38">
-        <v>60517.5010450561</v>
+        <v>1766.520873245187</v>
       </c>
       <c r="E38">
-        <v>4567.217212650562</v>
+        <v>818.8162846445416</v>
       </c>
       <c r="F38">
-        <v>1771.950325721539</v>
+        <v>403.4883581675085</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>124.8</v>
+        <v>198.4</v>
       </c>
       <c r="B39">
-        <v>47136.27578845661</v>
+        <v>4695.297363552592</v>
       </c>
       <c r="C39">
-        <v>13734.17709597144</v>
+        <v>1126.219123411089</v>
       </c>
       <c r="D39">
-        <v>60606.19504550708</v>
+        <v>1273.128333072389</v>
       </c>
       <c r="E39">
-        <v>3471.95626709719</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1826.026344367245</v>
+        <v>721.5528280907652</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>127.2</v>
+        <v>201</v>
       </c>
       <c r="B40">
-        <v>44917.74308421224</v>
+        <v>6506.020902324861</v>
       </c>
       <c r="C40">
-        <v>15259.88386917985</v>
+        <v>1123.329757782018</v>
       </c>
       <c r="D40">
-        <v>62038.98818887967</v>
+        <v>377.7864145518761</v>
       </c>
       <c r="E40">
-        <v>3794.515186464769</v>
+        <v>977.9490249684118</v>
       </c>
       <c r="F40">
-        <v>1777.827508533766</v>
+        <v>928.6226705076278</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>129.3</v>
+        <v>203.3</v>
       </c>
       <c r="B41">
-        <v>53072.77696799845</v>
+        <v>19150.89172508501</v>
       </c>
       <c r="C41">
-        <v>14639.8772957372</v>
+        <v>1427.312242033237</v>
       </c>
       <c r="D41">
-        <v>62377.68218933065</v>
+        <v>655.3685635529473</v>
       </c>
       <c r="E41">
-        <v>3299.254240911397</v>
+        <v>465.7500855173857</v>
       </c>
       <c r="F41">
-        <v>1651.903527179472</v>
+        <v>877.184454184082</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>131.5</v>
+        <v>205.7</v>
       </c>
       <c r="B42">
-        <v>52749.955322441</v>
+        <v>29307.71345318254</v>
       </c>
       <c r="C42">
-        <v>14728.4418378449</v>
+        <v>672.3374429910364</v>
       </c>
       <c r="D42">
-        <v>63391.07590408884</v>
+        <v>3061.976023380164</v>
       </c>
       <c r="E42">
-        <v>2946.599916998342</v>
+        <v>1566.933800872845</v>
       </c>
       <c r="F42">
-        <v>1735.221260998783</v>
+        <v>885.2489241073397</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>133.7</v>
+        <v>208.3</v>
       </c>
       <c r="B43">
-        <v>48497.13367688368</v>
+        <v>38838.4369919548</v>
       </c>
       <c r="C43">
-        <v>14587.0063799526</v>
+        <v>2009.448077361963</v>
       </c>
       <c r="D43">
-        <v>65894.46961884704</v>
+        <v>346.6341048596369</v>
       </c>
       <c r="E43">
-        <v>3543.945593085287</v>
+        <v>234.8828258412523</v>
       </c>
       <c r="F43">
-        <v>1838.538994818094</v>
+        <v>722.3187665242015</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>136.2</v>
+        <v>210.5</v>
       </c>
       <c r="B44">
-        <v>54160.74544329579</v>
+        <v>39401.3569093776</v>
       </c>
       <c r="C44">
-        <v>14251.28426871135</v>
+        <v>1522.387844906603</v>
       </c>
       <c r="D44">
-        <v>66241.96247652677</v>
+        <v>645.1909430345841</v>
       </c>
       <c r="E44">
-        <v>3899.11113409318</v>
+        <v>1009.301231583754</v>
       </c>
       <c r="F44">
-        <v>2009.581874158219</v>
+        <v>641.3778639538539</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>138.4</v>
+        <v>213.2</v>
       </c>
       <c r="B45">
-        <v>49217.92379773846</v>
+        <v>58734.03135348734</v>
       </c>
       <c r="C45">
-        <v>16179.84881081904</v>
+        <v>2170.541195984126</v>
       </c>
       <c r="D45">
-        <v>68195.35619128495</v>
+        <v>1048.874335340181</v>
       </c>
       <c r="E45">
-        <v>3566.456810180125</v>
+        <v>510.6329113586421</v>
       </c>
       <c r="F45">
-        <v>1592.89960797753</v>
+        <v>717.9503926175183</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>141</v>
+        <v>215.5</v>
       </c>
       <c r="B46">
-        <v>63133.68003480704</v>
+        <v>62358.90217624738</v>
       </c>
       <c r="C46">
-        <v>15172.69781512814</v>
+        <v>2944.52368023533</v>
       </c>
       <c r="D46">
-        <v>69677.54876327189</v>
+        <v>966.4564843412663</v>
       </c>
       <c r="E46">
-        <v>3314.228972828335</v>
+        <v>868.4339719076165</v>
       </c>
       <c r="F46">
-        <v>1753.184202491261</v>
+        <v>626.5121762939734</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>143.2</v>
+        <v>217.7</v>
       </c>
       <c r="B47">
-        <v>59280.85838924973</v>
+        <v>67921.82209367017</v>
       </c>
       <c r="C47">
-        <v>14901.26235723585</v>
+        <v>2987.463447779972</v>
       </c>
       <c r="D47">
-        <v>68150.94247803008</v>
+        <v>185.0133225162135</v>
       </c>
       <c r="E47">
-        <v>3071.574648915277</v>
+        <v>912.8523776501179</v>
       </c>
       <c r="F47">
-        <v>1846.501936310571</v>
+        <v>925.5712737236258</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>145.5</v>
+        <v>220</v>
       </c>
       <c r="B48">
-        <v>64560.18121434888</v>
+        <v>85416.69291643033</v>
       </c>
       <c r="C48">
-        <v>14308.3980148939</v>
+        <v>3141.445932031191</v>
       </c>
       <c r="D48">
-        <v>64549.03590709545</v>
+        <v>972.5954715172848</v>
       </c>
       <c r="E48">
-        <v>3641.526946642538</v>
+        <v>1050.653438199095</v>
       </c>
       <c r="F48">
-        <v>1829.061385303487</v>
+        <v>684.1330574000809</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>147.8</v>
+        <v>222.6</v>
       </c>
       <c r="B49">
-        <v>61559.50403944803</v>
+        <v>93267.41645520259</v>
       </c>
       <c r="C49">
-        <v>14365.53367255194</v>
+        <v>3168.556566402118</v>
       </c>
       <c r="D49">
-        <v>57677.12933616083</v>
+        <v>1557.253552996757</v>
       </c>
       <c r="E49">
-        <v>3031.479244369801</v>
+        <v>1048.602463167507</v>
       </c>
       <c r="F49">
-        <v>1951.620834296403</v>
+        <v>891.2028998169427</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>150.4</v>
+        <v>224.9</v>
       </c>
       <c r="B50">
-        <v>52975.26027651661</v>
+        <v>108882.2872779628</v>
       </c>
       <c r="C50">
-        <v>13838.38267686105</v>
+        <v>5092.539050653337</v>
       </c>
       <c r="D50">
-        <v>53419.32190814777</v>
+        <v>1674.835701997843</v>
       </c>
       <c r="E50">
-        <v>3739.251407018007</v>
+        <v>736.4035237164853</v>
       </c>
       <c r="F50">
-        <v>1761.905428810134</v>
+        <v>969.7646834933978</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>152.7</v>
+        <v>227.2</v>
       </c>
       <c r="B51">
-        <v>42824.58310161576</v>
+        <v>116047.1581007229</v>
       </c>
       <c r="C51">
-        <v>13345.5183345191</v>
+        <v>2956.521534904543</v>
       </c>
       <c r="D51">
-        <v>44657.41533721315</v>
+        <v>1032.417850998914</v>
       </c>
       <c r="E51">
-        <v>3469.20370474527</v>
+        <v>404.2045842654634</v>
       </c>
       <c r="F51">
-        <v>1654.464877803051</v>
+        <v>588.3264671698528</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>155</v>
+        <v>229.5</v>
       </c>
       <c r="B52">
-        <v>35173.90592671491</v>
+        <v>136822.028923483</v>
       </c>
       <c r="C52">
-        <v>13662.65399217715</v>
+        <v>3150.504019155762</v>
       </c>
       <c r="D52">
-        <v>40825.50876627852</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3449.156002472528</v>
+        <v>672.005644814441</v>
       </c>
       <c r="F52">
-        <v>1687.024326795966</v>
+        <v>716.8882508463079</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>157.6</v>
+        <v>232.1</v>
       </c>
       <c r="B53">
-        <v>35859.66216378349</v>
+        <v>172032.7524622554</v>
       </c>
       <c r="C53">
-        <v>13665.50299648625</v>
+        <v>2887.614653526691</v>
       </c>
       <c r="D53">
-        <v>37447.70133826546</v>
+        <v>564.6580814794725</v>
       </c>
       <c r="E53">
-        <v>2756.928165120738</v>
+        <v>589.9546697828528</v>
       </c>
       <c r="F53">
-        <v>2137.308921309697</v>
+        <v>713.9580932631696</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>159.9</v>
+        <v>234.4</v>
       </c>
       <c r="B54">
-        <v>31528.98498888264</v>
+        <v>194027.6232850155</v>
       </c>
       <c r="C54">
-        <v>12922.63865414429</v>
+        <v>5971.59713777791</v>
       </c>
       <c r="D54">
-        <v>34065.79476733083</v>
+        <v>862.240230480551</v>
       </c>
       <c r="E54">
-        <v>2846.880462847997</v>
+        <v>517.7557303318308</v>
       </c>
       <c r="F54">
-        <v>1679.868370302613</v>
+        <v>622.5198769396247</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>162.1</v>
+        <v>236.7</v>
       </c>
       <c r="B55">
-        <v>26666.1633433252</v>
+        <v>220002.4941077756</v>
       </c>
       <c r="C55">
-        <v>14831.203196252</v>
+        <v>3195.579622029129</v>
       </c>
       <c r="D55">
-        <v>32339.18848208902</v>
+        <v>1889.822379481629</v>
       </c>
       <c r="E55">
-        <v>3084.226138934941</v>
+        <v>505.5567908808089</v>
       </c>
       <c r="F55">
-        <v>1813.186104121924</v>
+        <v>751.0816606160797</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>164.4</v>
+        <v>239</v>
       </c>
       <c r="B56">
-        <v>25015.48616842435</v>
+        <v>251237.3649305357</v>
       </c>
       <c r="C56">
-        <v>13498.33885391005</v>
+        <v>5179.562106280333</v>
       </c>
       <c r="D56">
-        <v>30577.28191115439</v>
+        <v>2417.404528482701</v>
       </c>
       <c r="E56">
-        <v>3494.178436662204</v>
+        <v>403.3578514297869</v>
       </c>
       <c r="F56">
-        <v>1945.74555311484</v>
+        <v>559.6434442925339</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>167.1</v>
+        <v>241.6</v>
       </c>
       <c r="B57">
-        <v>22723.38687614941</v>
+        <v>293188.0884693081</v>
       </c>
       <c r="C57">
-        <v>14629.75897376949</v>
+        <v>7436.672740651276</v>
       </c>
       <c r="D57">
-        <v>28334.17419744852</v>
+        <v>2252.06260996218</v>
       </c>
       <c r="E57">
-        <v>2994.557220950727</v>
+        <v>611.3068763981946</v>
       </c>
       <c r="F57">
-        <v>1835.271862802176</v>
+        <v>776.7132867093966</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>169.3</v>
+        <v>243.9</v>
       </c>
       <c r="B58">
-        <v>18770.56523059209</v>
+        <v>336462.9592920681</v>
       </c>
       <c r="C58">
-        <v>12958.32351587719</v>
+        <v>5700.655224902481</v>
       </c>
       <c r="D58">
-        <v>27197.56791220672</v>
+        <v>2639.644758963252</v>
       </c>
       <c r="E58">
-        <v>2471.902897037668</v>
+        <v>699.1079369471727</v>
       </c>
       <c r="F58">
-        <v>1488.589596621486</v>
+        <v>1175.275070385851</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>171.7</v>
+        <v>246.5</v>
       </c>
       <c r="B59">
-        <v>28062.03252634771</v>
+        <v>393893.6828308405</v>
       </c>
       <c r="C59">
-        <v>13204.0302890856</v>
+        <v>6127.765859273424</v>
       </c>
       <c r="D59">
-        <v>26660.36105557928</v>
+        <v>1094.302840442739</v>
       </c>
       <c r="E59">
-        <v>3224.461816405252</v>
+        <v>1757.056961915581</v>
       </c>
       <c r="F59">
-        <v>1960.390760788007</v>
+        <v>632.3449128027135</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>173.9</v>
+        <v>249.1</v>
       </c>
       <c r="B60">
-        <v>28129.21088079039</v>
+        <v>445454.4063696128</v>
       </c>
       <c r="C60">
-        <v>13902.5948311933</v>
+        <v>6874.876493644366</v>
       </c>
       <c r="D60">
-        <v>25693.75477033745</v>
+        <v>3238.960921922218</v>
       </c>
       <c r="E60">
-        <v>3191.807492492193</v>
+        <v>2195.005986883993</v>
       </c>
       <c r="F60">
-        <v>1723.708494607318</v>
+        <v>629.4147552195752</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>176.6</v>
+        <v>251.4</v>
       </c>
       <c r="B61">
-        <v>16647.11158851544</v>
+        <v>498459.2771923731</v>
       </c>
       <c r="C61">
-        <v>12674.01495105274</v>
+        <v>5808.85897789557</v>
       </c>
       <c r="D61">
-        <v>23570.64705663158</v>
+        <v>2576.54307092329</v>
       </c>
       <c r="E61">
-        <v>3002.186276780717</v>
+        <v>162.8070474329702</v>
       </c>
       <c r="F61">
-        <v>1653.234804294654</v>
+        <v>837.9765388960302</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>178.8</v>
+        <v>253.7</v>
       </c>
       <c r="B62">
-        <v>24964.28994295812</v>
+        <v>561254.1480151331</v>
       </c>
       <c r="C62">
-        <v>13332.57949316044</v>
+        <v>8142.841462146791</v>
       </c>
       <c r="D62">
-        <v>22834.04077138978</v>
+        <v>2644.125219924361</v>
       </c>
       <c r="E62">
-        <v>2639.531952867661</v>
+        <v>1020.608107981948</v>
       </c>
       <c r="F62">
-        <v>1966.552538113964</v>
+        <v>996.5383225724854</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>181.5</v>
+        <v>257.6</v>
       </c>
       <c r="B63">
-        <v>28122.19065068317</v>
+        <v>639130.2333232915</v>
       </c>
       <c r="C63">
-        <v>12013.9996130199</v>
+        <v>5853.507413703188</v>
       </c>
       <c r="D63">
-        <v>22680.93305768391</v>
+        <v>3066.112342143577</v>
       </c>
       <c r="E63">
-        <v>2579.910737156185</v>
+        <v>842.5316454345639</v>
       </c>
       <c r="F63">
-        <v>1856.078847801301</v>
+        <v>587.1430861977776</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>183.8</v>
+        <v>259.9</v>
       </c>
       <c r="B64">
-        <v>26501.51347578233</v>
+        <v>686875.1041460518</v>
       </c>
       <c r="C64">
-        <v>12481.13527067794</v>
+        <v>7197.489897954425</v>
       </c>
       <c r="D64">
-        <v>23189.02648674927</v>
+        <v>2553.694491144663</v>
       </c>
       <c r="E64">
-        <v>2319.863034883444</v>
+        <v>1550.332705983542</v>
       </c>
       <c r="F64">
-        <v>1658.638296794217</v>
+        <v>735.7048698742326</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>186.1</v>
+        <v>262.2</v>
       </c>
       <c r="B65">
-        <v>28480.83630088148</v>
+        <v>700959.9749688118</v>
       </c>
       <c r="C65">
-        <v>12608.27092833599</v>
+        <v>8711.472382205629</v>
       </c>
       <c r="D65">
-        <v>22407.11991581466</v>
+        <v>4831.276640145734</v>
       </c>
       <c r="E65">
-        <v>2849.815332610706</v>
+        <v>1218.13376653252</v>
       </c>
       <c r="F65">
-        <v>1691.197745787133</v>
+        <v>424.2666535506877</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>188.8</v>
+        <v>264.8</v>
       </c>
       <c r="B66">
-        <v>27738.73700860653</v>
+        <v>730940.698507584</v>
       </c>
       <c r="C66">
-        <v>12189.69104819544</v>
+        <v>7388.583016576556</v>
       </c>
       <c r="D66">
-        <v>20394.01220210879</v>
+        <v>3765.934721625214</v>
       </c>
       <c r="E66">
-        <v>2950.194116899229</v>
+        <v>1166.082791500928</v>
       </c>
       <c r="F66">
-        <v>1760.724055474468</v>
+        <v>761.3364959675495</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>191.1</v>
+        <v>267.1</v>
       </c>
       <c r="B67">
-        <v>30238.05983370569</v>
+        <v>754915.5693303443</v>
       </c>
       <c r="C67">
-        <v>12376.82670585349</v>
+        <v>17722.56550082777</v>
       </c>
       <c r="D67">
-        <v>19602.10563117416</v>
+        <v>5983.516870626299</v>
       </c>
       <c r="E67">
-        <v>2970.146414626492</v>
+        <v>323.8838520499057</v>
       </c>
       <c r="F67">
-        <v>1623.283504467384</v>
+        <v>889.8982796440046</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>193.4</v>
+        <v>269.7</v>
       </c>
       <c r="B68">
-        <v>25937.38265880484</v>
+        <v>762016.2928691166</v>
       </c>
       <c r="C68">
-        <v>11803.96236351154</v>
+        <v>13429.67613519872</v>
       </c>
       <c r="D68">
-        <v>21010.19906023953</v>
+        <v>10838.17495210577</v>
       </c>
       <c r="E68">
-        <v>3090.098712353754</v>
+        <v>2081.832877018318</v>
       </c>
       <c r="F68">
-        <v>2065.8429534603</v>
+        <v>1056.968122060867</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="B69">
-        <v>20993.13889587342</v>
+        <v>763401.1636918767</v>
       </c>
       <c r="C69">
-        <v>13626.81136782064</v>
+        <v>10413.65861944992</v>
       </c>
       <c r="D69">
-        <v>18752.39163222648</v>
+        <v>2595.757101106843</v>
       </c>
       <c r="E69">
-        <v>2577.87087500196</v>
+        <v>1489.633937567296</v>
       </c>
       <c r="F69">
-        <v>1376.127547974031</v>
+        <v>755.5299057373213</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>198.4</v>
+        <v>274.6</v>
       </c>
       <c r="B70">
-        <v>19204.60619162905</v>
+        <v>765781.8872306491</v>
       </c>
       <c r="C70">
-        <v>12722.51814102904</v>
+        <v>10090.76925382085</v>
       </c>
       <c r="D70">
-        <v>17915.18477559905</v>
+        <v>3920.415182586323</v>
       </c>
       <c r="E70">
-        <v>1740.429794369536</v>
+        <v>977.5829625357032</v>
       </c>
       <c r="F70">
-        <v>1687.928712140552</v>
+        <v>982.5997481541831</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>201</v>
+        <v>276.9</v>
       </c>
       <c r="B71">
-        <v>20760.36242869763</v>
+        <v>710886.7580534092</v>
       </c>
       <c r="C71">
-        <v>12655.36714533814</v>
+        <v>10694.75173807207</v>
       </c>
       <c r="D71">
-        <v>16647.37734758598</v>
+        <v>3357.997331587401</v>
       </c>
       <c r="E71">
-        <v>2698.201957017743</v>
+        <v>955.3840230846854</v>
       </c>
       <c r="F71">
-        <v>1888.213306654283</v>
+        <v>981.1615318306383</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>203.3</v>
+        <v>279.1</v>
       </c>
       <c r="B72">
-        <v>33179.68525379678</v>
+        <v>655159.677970832</v>
       </c>
       <c r="C72">
-        <v>12902.50280299619</v>
+        <v>11897.69150561669</v>
       </c>
       <c r="D72">
-        <v>16595.47077665136</v>
+        <v>3436.554169762348</v>
       </c>
       <c r="E72">
-        <v>2168.154254745004</v>
+        <v>1269.802428827183</v>
       </c>
       <c r="F72">
-        <v>1830.772755647198</v>
+        <v>600.2206292602907</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>205.7</v>
+        <v>281.7</v>
       </c>
       <c r="B73">
-        <v>43101.15254955241</v>
+        <v>607400.4015096042</v>
       </c>
       <c r="C73">
-        <v>12088.20957620459</v>
+        <v>13824.80213998765</v>
       </c>
       <c r="D73">
-        <v>18658.26392002393</v>
+        <v>3951.212251241821</v>
       </c>
       <c r="E73">
-        <v>3250.713174112581</v>
+        <v>577.7514537955944</v>
       </c>
       <c r="F73">
-        <v>1832.573919813719</v>
+        <v>1107.290471677153</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>208.3</v>
+        <v>284</v>
       </c>
       <c r="B74">
-        <v>52376.90878662099</v>
+        <v>546315.2723323642</v>
       </c>
       <c r="C74">
-        <v>13361.05858051369</v>
+        <v>14808.78462423887</v>
       </c>
       <c r="D74">
-        <v>15570.45649201086</v>
+        <v>4588.794400242892</v>
       </c>
       <c r="E74">
-        <v>1898.48533676079</v>
+        <v>1915.552514344573</v>
       </c>
       <c r="F74">
-        <v>1662.85851432745</v>
+        <v>1025.852255353608</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>210.5</v>
+        <v>286.3</v>
       </c>
       <c r="B75">
-        <v>52724.08714106366</v>
+        <v>521410.1431551245</v>
       </c>
       <c r="C75">
-        <v>12819.62312262139</v>
+        <v>18622.76710849008</v>
       </c>
       <c r="D75">
-        <v>15553.85020676904</v>
+        <v>6086.376549243978</v>
       </c>
       <c r="E75">
-        <v>2655.831012847736</v>
+        <v>1413.35357489355</v>
       </c>
       <c r="F75">
-        <v>1576.176248146761</v>
+        <v>804.4140390300627</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>213.2</v>
+        <v>288.6</v>
       </c>
       <c r="B76">
-        <v>71791.98784878872</v>
+        <v>476995.0139778846</v>
       </c>
       <c r="C76">
-        <v>13401.04324248085</v>
+        <v>19076.74959274128</v>
       </c>
       <c r="D76">
-        <v>15570.74249306319</v>
+        <v>5533.958698245049</v>
       </c>
       <c r="E76">
-        <v>2136.20979713626</v>
+        <v>1961.154635442528</v>
       </c>
       <c r="F76">
-        <v>1645.702557834097</v>
+        <v>882.9758227065176</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>215.5</v>
+        <v>290.9</v>
       </c>
       <c r="B77">
-        <v>75191.31067388787</v>
+        <v>449449.8848006446</v>
       </c>
       <c r="C77">
-        <v>14118.1789001389</v>
+        <v>23690.7320769925</v>
       </c>
       <c r="D77">
-        <v>15158.83592212855</v>
+        <v>6351.540847246135</v>
       </c>
       <c r="E77">
-        <v>2476.162094863518</v>
+        <v>1458.955695991507</v>
       </c>
       <c r="F77">
-        <v>1548.262006827013</v>
+        <v>791.5376063829727</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>217.7</v>
+        <v>293.2</v>
       </c>
       <c r="B78">
-        <v>80538.48902833056</v>
+        <v>435994.7556234049</v>
       </c>
       <c r="C78">
-        <v>14106.74344224659</v>
+        <v>22834.71456124372</v>
       </c>
       <c r="D78">
-        <v>14062.22963688675</v>
+        <v>5449.122996247206</v>
       </c>
       <c r="E78">
-        <v>2503.507770950467</v>
+        <v>1486.756756540484</v>
       </c>
       <c r="F78">
-        <v>1841.579740646324</v>
+        <v>740.0993900594278</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>220</v>
+        <v>295.8</v>
       </c>
       <c r="B79">
-        <v>97807.8118534297</v>
+        <v>398425.4791621772</v>
       </c>
       <c r="C79">
-        <v>14203.87909990464</v>
+        <v>26191.82519561465</v>
       </c>
       <c r="D79">
-        <v>14520.32306595212</v>
+        <v>6273.781077726686</v>
       </c>
       <c r="E79">
-        <v>2623.460068677725</v>
+        <v>1054.705781508892</v>
       </c>
       <c r="F79">
-        <v>1594.13918963924</v>
+        <v>687.1692324762896</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>222.6</v>
+        <v>298.1</v>
       </c>
       <c r="B80">
-        <v>105403.5680904983</v>
+        <v>389020.3499849373</v>
       </c>
       <c r="C80">
-        <v>14166.72810421374</v>
+        <v>33915.80767986587</v>
       </c>
       <c r="D80">
-        <v>14732.51563793905</v>
+        <v>7871.363226727757</v>
       </c>
       <c r="E80">
-        <v>2601.232231325931</v>
+        <v>2502.50684205787</v>
       </c>
       <c r="F80">
-        <v>1794.423784152971</v>
+        <v>1065.731016152745</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>224.9</v>
+        <v>300.4</v>
       </c>
       <c r="B81">
-        <v>120792.8909155974</v>
+        <v>386315.2208076975</v>
       </c>
       <c r="C81">
-        <v>16033.86376187178</v>
+        <v>32939.79016411709</v>
       </c>
       <c r="D81">
-        <v>14520.60906700442</v>
+        <v>7018.945375728836</v>
       </c>
       <c r="E81">
-        <v>2271.184529053194</v>
+        <v>2310.307902606849</v>
       </c>
       <c r="F81">
-        <v>1866.983233145887</v>
+        <v>944.2927998291988</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>227.2</v>
+        <v>303</v>
       </c>
       <c r="B82">
-        <v>127732.2137406965</v>
+        <v>373235.9443464698</v>
       </c>
       <c r="C82">
-        <v>13840.99941952984</v>
+        <v>31606.90079848802</v>
       </c>
       <c r="D82">
-        <v>13548.70249606979</v>
+        <v>5273.603457208315</v>
       </c>
       <c r="E82">
-        <v>1921.136826780456</v>
+        <v>1538.256927575256</v>
       </c>
       <c r="F82">
-        <v>1479.542682138802</v>
+        <v>541.3626422460615</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>229.5</v>
+        <v>305.3</v>
       </c>
       <c r="B83">
-        <v>148281.5365657956</v>
+        <v>360850.8151692299</v>
       </c>
       <c r="C83">
-        <v>13978.13507718789</v>
+        <v>33940.88328273923</v>
       </c>
       <c r="D83">
-        <v>12186.79592513518</v>
+        <v>5941.185606209387</v>
       </c>
       <c r="E83">
-        <v>2171.089124507718</v>
+        <v>2246.057988124234</v>
       </c>
       <c r="F83">
-        <v>1602.102131131718</v>
+        <v>669.9244259225156</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>232.1</v>
+        <v>307.9</v>
       </c>
       <c r="B84">
-        <v>183237.2928028642</v>
+        <v>340091.5387080023</v>
       </c>
       <c r="C84">
-        <v>13650.984081497</v>
+        <v>34177.99391711018</v>
       </c>
       <c r="D84">
-        <v>12378.98849712211</v>
+        <v>7425.843687688874</v>
       </c>
       <c r="E84">
-        <v>2068.861287155924</v>
+        <v>1764.00701309265</v>
       </c>
       <c r="F84">
-        <v>1592.386725645448</v>
+        <v>656.9942683393783</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>234.4</v>
+        <v>310.2</v>
       </c>
       <c r="B85">
-        <v>205006.6156279634</v>
+        <v>331766.4095307624</v>
       </c>
       <c r="C85">
-        <v>16678.11973915504</v>
+        <v>29221.97640136138</v>
       </c>
       <c r="D85">
-        <v>12347.0819261875</v>
+        <v>6823.425836689945</v>
       </c>
       <c r="E85">
-        <v>1978.813584883183</v>
+        <v>1241.808073641624</v>
       </c>
       <c r="F85">
-        <v>1494.946174638365</v>
+        <v>595.5560520158333</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>236.7</v>
+        <v>312.5</v>
       </c>
       <c r="B86">
-        <v>230755.9384530625</v>
+        <v>315951.2803535225</v>
       </c>
       <c r="C86">
-        <v>13845.25539681309</v>
+        <v>27835.9588856126</v>
       </c>
       <c r="D86">
-        <v>13045.17535525287</v>
+        <v>7711.007985691016</v>
       </c>
       <c r="E86">
-        <v>1948.765882610445</v>
+        <v>2299.609134190602</v>
       </c>
       <c r="F86">
-        <v>1617.50562363128</v>
+        <v>644.1178356922884</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>239</v>
+        <v>314.7</v>
       </c>
       <c r="B87">
-        <v>261765.2612781617</v>
+        <v>315584.2002709453</v>
       </c>
       <c r="C87">
-        <v>15772.39105447114</v>
+        <v>22868.89865315724</v>
       </c>
       <c r="D87">
-        <v>13243.26878431824</v>
+        <v>5859.564823865971</v>
       </c>
       <c r="E87">
-        <v>1828.718180337708</v>
+        <v>924.0275399331035</v>
       </c>
       <c r="F87">
-        <v>1420.065072624196</v>
+        <v>753.1769331219409</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>241.6</v>
+        <v>317.3</v>
       </c>
       <c r="B88">
-        <v>303461.0175152303</v>
+        <v>328654.9238097175</v>
       </c>
       <c r="C88">
-        <v>17965.24005878025</v>
+        <v>20246.00928752817</v>
       </c>
       <c r="D88">
-        <v>12705.46135630518</v>
+        <v>7374.222905345436</v>
       </c>
       <c r="E88">
-        <v>2016.490342985918</v>
+        <v>1581.976564901511</v>
       </c>
       <c r="F88">
-        <v>1630.349667137927</v>
+        <v>540.2467755388018</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>243.9</v>
+        <v>319.6</v>
       </c>
       <c r="B89">
-        <v>346510.3403403294</v>
+        <v>327439.7946324777</v>
       </c>
       <c r="C89">
-        <v>16172.37571643829</v>
+        <v>15289.99177177937</v>
       </c>
       <c r="D89">
-        <v>12763.55478537055</v>
+        <v>6301.805054346522</v>
       </c>
       <c r="E89">
-        <v>2086.442640713172</v>
+        <v>2129.777625450489</v>
       </c>
       <c r="F89">
-        <v>2022.909116130843</v>
+        <v>908.8085592152568</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>246.5</v>
+        <v>321.9</v>
       </c>
       <c r="B90">
-        <v>403686.096577398</v>
+        <v>333084.6654552378</v>
       </c>
       <c r="C90">
-        <v>16535.22472074739</v>
+        <v>13213.97425603061</v>
       </c>
       <c r="D90">
-        <v>10845.7473573575</v>
+        <v>6959.387203347607</v>
       </c>
       <c r="E90">
-        <v>3124.214803361383</v>
+        <v>1617.578685999471</v>
       </c>
       <c r="F90">
-        <v>1473.193710644574</v>
+        <v>757.370342891712</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>249.1</v>
+        <v>324.2</v>
       </c>
       <c r="B91">
-        <v>454991.8528144666</v>
+        <v>338619.5362779979</v>
       </c>
       <c r="C91">
-        <v>17218.07372505649</v>
+        <v>12037.95674028181</v>
       </c>
       <c r="D91">
-        <v>12617.93992934445</v>
+        <v>7766.969352348679</v>
       </c>
       <c r="E91">
-        <v>3541.986966009593</v>
+        <v>2785.379746548449</v>
       </c>
       <c r="F91">
-        <v>1463.478305158305</v>
+        <v>635.932126568167</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>251.4</v>
+        <v>326.8</v>
       </c>
       <c r="B92">
-        <v>507771.1756395659</v>
+        <v>354800.2598167703</v>
       </c>
       <c r="C92">
-        <v>16095.20938271453</v>
+        <v>10295.06737465274</v>
       </c>
       <c r="D92">
-        <v>11626.03335840982</v>
+        <v>8461.627433828155</v>
       </c>
       <c r="E92">
-        <v>1491.939263736851</v>
+        <v>2723.328771516857</v>
       </c>
       <c r="F92">
-        <v>1666.037754151221</v>
+        <v>693.0019689850287</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>253.7</v>
+        <v>329.1</v>
       </c>
       <c r="B93">
-        <v>570340.498464665</v>
+        <v>374125.1306395304</v>
       </c>
       <c r="C93">
-        <v>18372.3450403726</v>
+        <v>10559.04985890396</v>
       </c>
       <c r="D93">
-        <v>11364.12678747519</v>
+        <v>8419.209582829226</v>
       </c>
       <c r="E93">
-        <v>2331.891561464113</v>
+        <v>3671.129832065835</v>
       </c>
       <c r="F93">
-        <v>1818.597203144137</v>
+        <v>751.5637526614837</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>257.6</v>
+        <v>331.3</v>
       </c>
       <c r="B94">
-        <v>647834.1328202678</v>
+        <v>377768.0505569531</v>
       </c>
       <c r="C94">
-        <v>15986.61854683623</v>
+        <v>11371.9896264486</v>
       </c>
       <c r="D94">
-        <v>11227.4156454556</v>
+        <v>7567.766421004169</v>
       </c>
       <c r="E94">
-        <v>2123.549805436424</v>
+        <v>3735.548237808336</v>
       </c>
       <c r="F94">
-        <v>1399.024094914733</v>
+        <v>700.6228500911363</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>259.9</v>
+        <v>333.9</v>
       </c>
       <c r="B95">
-        <v>695353.4556453669</v>
+        <v>378378.7740957255</v>
       </c>
       <c r="C95">
-        <v>17273.7542044943</v>
+        <v>10509.10026081954</v>
       </c>
       <c r="D95">
-        <v>10385.50907452098</v>
+        <v>8912.424502483653</v>
       </c>
       <c r="E95">
-        <v>2813.502103163687</v>
+        <v>5823.497262776747</v>
       </c>
       <c r="F95">
-        <v>1541.583543907649</v>
+        <v>757.6926925079981</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>262.2</v>
+        <v>336.3</v>
       </c>
       <c r="B96">
-        <v>709212.7784704661</v>
+        <v>377635.595823823</v>
       </c>
       <c r="C96">
-        <v>18730.88986215233</v>
+        <v>10644.12546177733</v>
       </c>
       <c r="D96">
-        <v>12333.60250358635</v>
+        <v>8379.031962310855</v>
       </c>
       <c r="E96">
-        <v>2463.454400890949</v>
+        <v>7844.680978132199</v>
       </c>
       <c r="F96">
-        <v>1224.142992900565</v>
+        <v>715.7571624312557</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>264.8</v>
+        <v>338.9</v>
       </c>
       <c r="B97">
-        <v>738938.5347075347</v>
+        <v>374016.3193625953</v>
       </c>
       <c r="C97">
-        <v>17343.73886646143</v>
+        <v>8881.236096148272</v>
       </c>
       <c r="D97">
-        <v>10895.7950755733</v>
+        <v>10133.69004379033</v>
       </c>
       <c r="E97">
-        <v>2391.226563539152</v>
+        <v>10032.63000310061</v>
       </c>
       <c r="F97">
-        <v>1554.427587414295</v>
+        <v>1062.827004848117</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>267.1</v>
+        <v>341.2</v>
       </c>
       <c r="B98">
-        <v>762687.8575326338</v>
+        <v>366631.1901853554</v>
       </c>
       <c r="C98">
-        <v>27620.87452411948</v>
+        <v>12165.21858039948</v>
       </c>
       <c r="D98">
-        <v>12783.88850463866</v>
+        <v>11441.27219279142</v>
       </c>
       <c r="E98">
-        <v>1531.178861266414</v>
+        <v>13790.43106364959</v>
       </c>
       <c r="F98">
-        <v>1676.987036407211</v>
+        <v>911.3887885245725</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>269.7</v>
+        <v>343.4</v>
       </c>
       <c r="B99">
-        <v>769533.6137697024</v>
+        <v>362704.1101027781</v>
       </c>
       <c r="C99">
-        <v>23263.72352842859</v>
+        <v>11118.15834794412</v>
       </c>
       <c r="D99">
-        <v>17266.08107662562</v>
+        <v>9539.829030966357</v>
       </c>
       <c r="E99">
-        <v>3268.951023914624</v>
+        <v>17294.84946939209</v>
       </c>
       <c r="F99">
-        <v>1837.271630920942</v>
+        <v>740.4478859542251</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>272</v>
+        <v>345.8</v>
       </c>
       <c r="B100">
-        <v>770692.9365948016</v>
+        <v>341230.9318308756</v>
       </c>
       <c r="C100">
-        <v>20190.85918608664</v>
+        <v>9493.183548901901</v>
       </c>
       <c r="D100">
-        <v>8694.174505690986</v>
+        <v>10996.43649079357</v>
       </c>
       <c r="E100">
-        <v>2658.903321641887</v>
+        <v>21206.03318474754</v>
       </c>
       <c r="F100">
-        <v>1529.831079913858</v>
+        <v>1048.512355877483</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>274.6</v>
+        <v>348.4</v>
       </c>
       <c r="B101">
-        <v>772818.6928318702</v>
+        <v>338111.655369648</v>
       </c>
       <c r="C101">
-        <v>19803.70819039573</v>
+        <v>9870.294183272843</v>
       </c>
       <c r="D101">
-        <v>9646.367077677922</v>
+        <v>11961.09457227305</v>
       </c>
       <c r="E101">
-        <v>2126.675484290089</v>
+        <v>26543.98220971596</v>
       </c>
       <c r="F101">
-        <v>1750.115674427589</v>
+        <v>585.5821982943444</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>276.9</v>
+        <v>350.7</v>
       </c>
       <c r="B102">
-        <v>717698.0156569693</v>
+        <v>345256.5261924082</v>
       </c>
       <c r="C102">
-        <v>20350.8438480538</v>
+        <v>8604.276667524065</v>
       </c>
       <c r="D102">
-        <v>8754.460506743311</v>
+        <v>12798.67672127412</v>
       </c>
       <c r="E102">
-        <v>2086.627782017355</v>
+        <v>35861.78327026494</v>
       </c>
       <c r="F102">
-        <v>1742.675123420505</v>
+        <v>834.1439819707995</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>279.1</v>
+        <v>353</v>
       </c>
       <c r="B103">
-        <v>661755.194011412</v>
+        <v>356071.3970151682</v>
       </c>
       <c r="C103">
-        <v>21499.40839016147</v>
+        <v>9438.259151775268</v>
       </c>
       <c r="D103">
-        <v>8517.854221501482</v>
+        <v>12736.25887027521</v>
       </c>
       <c r="E103">
-        <v>2383.973458104296</v>
+        <v>45649.58433081391</v>
       </c>
       <c r="F103">
-        <v>1355.992857239816</v>
+        <v>812.7057656472537</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>281.7</v>
+        <v>355.6</v>
       </c>
       <c r="B104">
-        <v>613740.9502484805</v>
+        <v>379552.1205539406</v>
       </c>
       <c r="C104">
-        <v>23362.25739447059</v>
+        <v>8185.369786146193</v>
       </c>
       <c r="D104">
-        <v>8660.046793488436</v>
+        <v>13130.91695175467</v>
       </c>
       <c r="E104">
-        <v>1671.745620752507</v>
+        <v>57607.53335578231</v>
       </c>
       <c r="F104">
-        <v>1856.277451753547</v>
+        <v>739.7756080641163</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>284</v>
+        <v>357.9</v>
       </c>
       <c r="B105">
-        <v>552430.2730735797</v>
+        <v>423096.9913767008</v>
       </c>
       <c r="C105">
-        <v>24289.39305212864</v>
+        <v>9139.352270397432</v>
       </c>
       <c r="D105">
-        <v>8968.140222553808</v>
+        <v>14938.49910075575</v>
       </c>
       <c r="E105">
-        <v>2991.697918479765</v>
+        <v>72805.3344163313</v>
       </c>
       <c r="F105">
-        <v>1768.836900746463</v>
+        <v>798.3373917405714</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>286.3</v>
+        <v>360.2</v>
       </c>
       <c r="B106">
-        <v>527299.5958986789</v>
+        <v>469731.8621994609</v>
       </c>
       <c r="C106">
-        <v>28046.52870978668</v>
+        <v>9463.334754648635</v>
       </c>
       <c r="D106">
-        <v>10136.23365161918</v>
+        <v>17016.08124975684</v>
       </c>
       <c r="E106">
-        <v>2471.650216207027</v>
+        <v>89583.13547688027</v>
       </c>
       <c r="F106">
-        <v>1541.396349739379</v>
+        <v>656.8991754170265</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>288.6</v>
+        <v>362.5</v>
       </c>
       <c r="B107">
-        <v>482658.9187237779</v>
+        <v>542216.733022221</v>
       </c>
       <c r="C107">
-        <v>28443.66436744473</v>
+        <v>10447.31723889984</v>
       </c>
       <c r="D107">
-        <v>9254.327080684547</v>
+        <v>17783.66339875791</v>
       </c>
       <c r="E107">
-        <v>3001.602513934286</v>
+        <v>113090.9365374292</v>
       </c>
       <c r="F107">
-        <v>1613.955798732294</v>
+        <v>815.4609590934806</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>290.9</v>
+        <v>365.1</v>
       </c>
       <c r="B108">
-        <v>454888.241548877</v>
+        <v>629627.4565609932</v>
       </c>
       <c r="C108">
-        <v>33000.80002510279</v>
+        <v>9724.427873270779</v>
       </c>
       <c r="D108">
-        <v>9742.420509749918</v>
+        <v>20948.32148023739</v>
       </c>
       <c r="E108">
-        <v>2481.554811661552</v>
+        <v>139938.8855623977</v>
       </c>
       <c r="F108">
-        <v>1516.515247725211</v>
+        <v>952.5308015103433</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>293.2</v>
+        <v>367.4</v>
       </c>
       <c r="B109">
-        <v>441207.5643739761</v>
+        <v>724872.3273837535</v>
       </c>
       <c r="C109">
-        <v>32087.93568276085</v>
+        <v>11628.410357522</v>
       </c>
       <c r="D109">
-        <v>8510.513938815289</v>
+        <v>24555.90362923847</v>
       </c>
       <c r="E109">
-        <v>2491.50710938881</v>
+        <v>172346.6866229466</v>
       </c>
       <c r="F109">
-        <v>1459.074696718126</v>
+        <v>1231.092585186798</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>295.8</v>
+        <v>369.6</v>
       </c>
       <c r="B110">
-        <v>403383.3206110447</v>
+        <v>852855.2473011761</v>
       </c>
       <c r="C110">
-        <v>35380.78468706994</v>
+        <v>13021.35012506662</v>
       </c>
       <c r="D110">
-        <v>8962.706510802236</v>
+        <v>26584.4604674134</v>
       </c>
       <c r="E110">
-        <v>2039.279272037016</v>
+        <v>208291.1050286891</v>
       </c>
       <c r="F110">
-        <v>1399.359291231856</v>
+        <v>830.1516826164499</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>298.1</v>
+        <v>372.3</v>
       </c>
       <c r="B111">
-        <v>393752.6434361439</v>
+        <v>983257.9217452859</v>
       </c>
       <c r="C111">
-        <v>43047.92034472799</v>
+        <v>13129.50347614415</v>
       </c>
       <c r="D111">
-        <v>10230.79993986761</v>
+        <v>30048.14385971902</v>
       </c>
       <c r="E111">
-        <v>3469.231569764279</v>
+        <v>240242.436708464</v>
       </c>
       <c r="F111">
-        <v>1771.918740224772</v>
+        <v>786.7242112801143</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>300.4</v>
+        <v>374.5</v>
       </c>
       <c r="B112">
-        <v>390821.966261243</v>
+        <v>1092510.841662709</v>
       </c>
       <c r="C112">
-        <v>42015.05600238605</v>
+        <v>13022.44324368879</v>
       </c>
       <c r="D112">
-        <v>9048.893368932997</v>
+        <v>30896.70069789395</v>
       </c>
       <c r="E112">
-        <v>3259.183867491542</v>
+        <v>266656.8551142066</v>
       </c>
       <c r="F112">
-        <v>1644.478189217689</v>
+        <v>995.7833087097667</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>303</v>
+        <v>376.8</v>
       </c>
       <c r="B113">
-        <v>377487.7224983116</v>
+        <v>1154205.712485469</v>
       </c>
       <c r="C113">
-        <v>40617.90500669515</v>
+        <v>13226.42572793999</v>
       </c>
       <c r="D113">
-        <v>6931.085940919929</v>
+        <v>33124.28284689503</v>
       </c>
       <c r="E113">
-        <v>2466.956030139748</v>
+        <v>261174.6561747555</v>
       </c>
       <c r="F113">
-        <v>1234.762783731419</v>
+        <v>934.3450923862217</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>305.3</v>
+        <v>379.1</v>
       </c>
       <c r="B114">
-        <v>364877.0453234108</v>
+        <v>1121300.583308229</v>
       </c>
       <c r="C114">
-        <v>42895.04066435318</v>
+        <v>13600.40821219121</v>
       </c>
       <c r="D114">
-        <v>7269.179369985301</v>
+        <v>33121.86499589612</v>
       </c>
       <c r="E114">
-        <v>3156.908327867006</v>
+        <v>231342.4572353045</v>
       </c>
       <c r="F114">
-        <v>1357.322232724335</v>
+        <v>1172.906876062677</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>307.9</v>
+        <v>381.7</v>
       </c>
       <c r="B115">
-        <v>343862.8015604793</v>
+        <v>1042271.306847001</v>
       </c>
       <c r="C115">
-        <v>43067.8896686623</v>
+        <v>14287.51884656215</v>
       </c>
       <c r="D115">
-        <v>8381.371941972251</v>
+        <v>29616.52307737559</v>
       </c>
       <c r="E115">
-        <v>2654.680490515217</v>
+        <v>187080.4062602729</v>
       </c>
       <c r="F115">
-        <v>1337.606827238066</v>
+        <v>719.9767184795387</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>310.2</v>
+        <v>384</v>
       </c>
       <c r="B116">
-        <v>335312.1243855785</v>
+        <v>914106.1776697612</v>
       </c>
       <c r="C116">
-        <v>38055.02532632034</v>
+        <v>12511.50133081336</v>
       </c>
       <c r="D116">
-        <v>7449.465371037622</v>
+        <v>29794.10522637666</v>
       </c>
       <c r="E116">
-        <v>2114.632788242478</v>
+        <v>141628.2073208219</v>
       </c>
       <c r="F116">
-        <v>1270.166276230982</v>
+        <v>748.5385021559937</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>312.5</v>
+        <v>386.3</v>
       </c>
       <c r="B117">
-        <v>319271.4472106777</v>
+        <v>771251.0484925215</v>
       </c>
       <c r="C117">
-        <v>36612.16098397839</v>
+        <v>12765.48381506458</v>
       </c>
       <c r="D117">
-        <v>8007.55880010299</v>
+        <v>26041.68737537775</v>
       </c>
       <c r="E117">
-        <v>3154.585085969737</v>
+        <v>105936.0083813708</v>
       </c>
       <c r="F117">
-        <v>1312.725725223898</v>
+        <v>877.1002858324487</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>314.7</v>
+        <v>388.9</v>
       </c>
       <c r="B118">
-        <v>318688.6255651203</v>
+        <v>648741.7720312937</v>
       </c>
       <c r="C118">
-        <v>31590.72552608609</v>
+        <v>13332.59444943552</v>
       </c>
       <c r="D118">
-        <v>5840.952514861168</v>
+        <v>27286.34545685723</v>
       </c>
       <c r="E118">
-        <v>1761.930762056682</v>
+        <v>78503.95740633925</v>
       </c>
       <c r="F118">
-        <v>1416.043459043209</v>
+        <v>864.1701282493107</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>317.3</v>
+        <v>391.2</v>
       </c>
       <c r="B119">
-        <v>331504.3818021889</v>
+        <v>521036.642854054</v>
       </c>
       <c r="C119">
-        <v>28903.57453039518</v>
+        <v>12416.57693368673</v>
       </c>
       <c r="D119">
-        <v>6983.145086848119</v>
+        <v>25153.9276058583</v>
       </c>
       <c r="E119">
-        <v>2399.702924704889</v>
+        <v>61591.75846688824</v>
       </c>
       <c r="F119">
-        <v>1196.328053556939</v>
+        <v>692.7319119257656</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>319.6</v>
+        <v>393.4</v>
       </c>
       <c r="B120">
-        <v>330063.704627288</v>
+        <v>436729.5627714767</v>
       </c>
       <c r="C120">
-        <v>23890.71018805323</v>
+        <v>12049.51670123137</v>
       </c>
       <c r="D120">
-        <v>5581.238515913486</v>
+        <v>28062.48444403325</v>
       </c>
       <c r="E120">
-        <v>2929.65522243215</v>
+        <v>49256.17687263074</v>
       </c>
       <c r="F120">
-        <v>1558.887502549856</v>
+        <v>761.7910093554181</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>321.9</v>
+        <v>396.1</v>
       </c>
       <c r="B121">
-        <v>335483.0274523872</v>
+        <v>357732.2372155864</v>
       </c>
       <c r="C121">
-        <v>21757.84584571129</v>
+        <v>9747.670052308873</v>
       </c>
       <c r="D121">
-        <v>5909.331944978876</v>
+        <v>32006.16783633886</v>
       </c>
       <c r="E121">
-        <v>2399.607520159413</v>
+        <v>39617.50855240563</v>
       </c>
       <c r="F121">
-        <v>1401.446951542772</v>
+        <v>698.3635380190824</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>324.2</v>
+        <v>398.3</v>
       </c>
       <c r="B122">
-        <v>340792.3502774864</v>
+        <v>301405.1571330091</v>
       </c>
       <c r="C122">
-        <v>20524.98150336934</v>
+        <v>9530.609819853516</v>
       </c>
       <c r="D122">
-        <v>6387.425374044244</v>
+        <v>31174.7246745138</v>
       </c>
       <c r="E122">
-        <v>3549.559817886675</v>
+        <v>36641.92695814813</v>
       </c>
       <c r="F122">
-        <v>1274.006400535688</v>
+        <v>847.422635448735</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>326.8</v>
+        <v>400.6</v>
       </c>
       <c r="B123">
-        <v>356718.1065145549</v>
+        <v>279140.0279557693</v>
       </c>
       <c r="C123">
-        <v>18717.83050767843</v>
+        <v>10844.59230410472</v>
       </c>
       <c r="D123">
-        <v>6709.61794603118</v>
+        <v>39682.30682351487</v>
       </c>
       <c r="E123">
-        <v>3467.331980534881</v>
+        <v>32599.72801869711</v>
       </c>
       <c r="F123">
-        <v>1324.290995049418</v>
+        <v>695.98441912519</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>329.1</v>
+        <v>402.5</v>
       </c>
       <c r="B124">
-        <v>375817.4293396541</v>
+        <v>257887.0951571797</v>
       </c>
       <c r="C124">
-        <v>18924.96616533648</v>
+        <v>10284.40392152965</v>
       </c>
       <c r="D124">
-        <v>6337.711375096547</v>
+        <v>42373.78772921141</v>
       </c>
       <c r="E124">
-        <v>4397.284278262139</v>
+        <v>30743.99846002018</v>
       </c>
       <c r="F124">
-        <v>1376.850444042333</v>
+        <v>506.5354578144349</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>331.3</v>
+        <v>405.4</v>
       </c>
       <c r="B125">
-        <v>379244.6076940966</v>
+        <v>235643.6714119643</v>
       </c>
       <c r="C125">
-        <v>19683.53070744417</v>
+        <v>11014.64270602032</v>
       </c>
       <c r="D125">
-        <v>5171.10508985474</v>
+        <v>48015.52174316928</v>
       </c>
       <c r="E125">
-        <v>4444.629954349085</v>
+        <v>28432.09544940801</v>
       </c>
       <c r="F125">
-        <v>1320.168177861645</v>
+        <v>742.1133589717044</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>333.9</v>
+        <v>407.7</v>
       </c>
       <c r="B126">
-        <v>379600.3639311654</v>
+        <v>225638.5422347244</v>
       </c>
       <c r="C126">
-        <v>18756.37971175329</v>
+        <v>9508.625190271525</v>
       </c>
       <c r="D126">
-        <v>6143.29766184168</v>
+        <v>56293.10389217038</v>
       </c>
       <c r="E126">
-        <v>6512.402116997296</v>
+        <v>26679.896509957</v>
       </c>
       <c r="F126">
-        <v>1370.452772375376</v>
+        <v>650.6751426481594</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>336.3</v>
+        <v>410</v>
       </c>
       <c r="B127">
-        <v>378621.8312269209</v>
+        <v>224243.4130574845</v>
       </c>
       <c r="C127">
-        <v>18832.08648496167</v>
+        <v>7422.607674522742</v>
       </c>
       <c r="D127">
-        <v>5266.09080521424</v>
+        <v>63790.68604117145</v>
       </c>
       <c r="E127">
-        <v>8514.961036364872</v>
+        <v>24717.69757050597</v>
       </c>
       <c r="F127">
-        <v>1322.253936541896</v>
+        <v>669.2369263246144</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>338.9</v>
+        <v>412.6</v>
       </c>
       <c r="B128">
-        <v>374747.5874639896</v>
+        <v>217344.1365962569</v>
       </c>
       <c r="C128">
-        <v>17004.93548927079</v>
+        <v>12279.71830889367</v>
       </c>
       <c r="D128">
-        <v>6648.283377201195</v>
+        <v>74445.34412265092</v>
       </c>
       <c r="E128">
-        <v>10682.73319901308</v>
+        <v>25555.64659547438</v>
       </c>
       <c r="F128">
-        <v>1662.538531055628</v>
+        <v>696.3067687414762</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>341.2</v>
+        <v>414.9</v>
       </c>
       <c r="B129">
-        <v>367136.9102890887</v>
+        <v>210469.007419017</v>
       </c>
       <c r="C129">
-        <v>20232.07114692883</v>
+        <v>7403.700793144892</v>
       </c>
       <c r="D129">
-        <v>7626.376806266562</v>
+        <v>84032.92627165202</v>
       </c>
       <c r="E129">
-        <v>14422.68549674034</v>
+        <v>23903.44765602337</v>
       </c>
       <c r="F129">
-        <v>1505.097980048543</v>
+        <v>764.8685524179314</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>343.4</v>
+        <v>417.2</v>
       </c>
       <c r="B130">
-        <v>362994.0886435313</v>
+        <v>216913.8782417771</v>
       </c>
       <c r="C130">
-        <v>19130.63568903654</v>
+        <v>10677.68327739611</v>
       </c>
       <c r="D130">
-        <v>5409.770521024755</v>
+        <v>95580.50842065309</v>
       </c>
       <c r="E130">
-        <v>17910.03117282729</v>
+        <v>23041.24871657234</v>
       </c>
       <c r="F130">
-        <v>1328.415713867854</v>
+        <v>693.4303360943863</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>345.8</v>
+        <v>419.5</v>
       </c>
       <c r="B131">
-        <v>341285.5559392869</v>
+        <v>228858.7490645373</v>
       </c>
       <c r="C131">
-        <v>17446.34246224492</v>
+        <v>8171.665761647315</v>
       </c>
       <c r="D131">
-        <v>6522.563664397301</v>
+        <v>108688.0905696542</v>
       </c>
       <c r="E131">
-        <v>21802.59009219486</v>
+        <v>22399.04977712132</v>
       </c>
       <c r="F131">
-        <v>1630.216878034375</v>
+        <v>1021.99211977084</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>348.4</v>
+        <v>422.1</v>
       </c>
       <c r="B132">
-        <v>337911.3121763555</v>
+        <v>216359.4726033096</v>
       </c>
       <c r="C132">
-        <v>17759.19146655404</v>
+        <v>9368.77639601824</v>
       </c>
       <c r="D132">
-        <v>7114.756236384255</v>
+        <v>118762.7486511336</v>
       </c>
       <c r="E132">
-        <v>27120.36225484307</v>
+        <v>21776.99880208973</v>
       </c>
       <c r="F132">
-        <v>1160.501472548106</v>
+        <v>1029.061962187703</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>350.7</v>
+        <v>424</v>
       </c>
       <c r="B133">
-        <v>344830.6350014546</v>
+        <v>231156.5398047201</v>
       </c>
       <c r="C133">
-        <v>16436.32712421208</v>
+        <v>10238.58801344316</v>
       </c>
       <c r="D133">
-        <v>7622.849665449623</v>
+        <v>135154.2295568302</v>
       </c>
       <c r="E133">
-        <v>36420.31455257034</v>
+        <v>21401.26924341279</v>
       </c>
       <c r="F133">
-        <v>1403.060921541022</v>
+        <v>619.613000876948</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>353</v>
+        <v>426.6</v>
       </c>
       <c r="B134">
-        <v>355419.9578265538</v>
+        <v>218857.2633434925</v>
       </c>
       <c r="C134">
-        <v>17213.46278187014</v>
+        <v>7655.698647814099</v>
       </c>
       <c r="D134">
-        <v>7230.943094514994</v>
+        <v>145348.8876383097</v>
       </c>
       <c r="E134">
-        <v>46190.2668502976</v>
+        <v>20569.2182683812</v>
       </c>
       <c r="F134">
-        <v>1375.620370533938</v>
+        <v>926.6828432938098</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>355.6</v>
+        <v>428.9</v>
       </c>
       <c r="B135">
-        <v>378645.7140636223</v>
+        <v>191282.1341662525</v>
       </c>
       <c r="C135">
-        <v>15896.31178617923</v>
+        <v>7709.681132065323</v>
       </c>
       <c r="D135">
-        <v>7253.135666501941</v>
+        <v>155256.4697873108</v>
       </c>
       <c r="E135">
-        <v>58128.0390129458</v>
+        <v>19277.01932893019</v>
       </c>
       <c r="F135">
-        <v>1295.904965047669</v>
+        <v>865.2446269702648</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>357.9</v>
+        <v>431.5</v>
       </c>
       <c r="B136">
-        <v>421965.0368887215</v>
+        <v>196942.8577050249</v>
       </c>
       <c r="C136">
-        <v>16793.44744383729</v>
+        <v>8766.791766436249</v>
       </c>
       <c r="D136">
-        <v>8731.229095567316</v>
+        <v>162211.1278687902</v>
       </c>
       <c r="E136">
-        <v>73307.99131067308</v>
+        <v>17114.9683538986</v>
       </c>
       <c r="F136">
-        <v>1348.464414040584</v>
+        <v>632.3144693871266</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>360.2</v>
+        <v>433.8</v>
       </c>
       <c r="B137">
-        <v>468374.3597138207</v>
+        <v>196027.728527785</v>
       </c>
       <c r="C137">
-        <v>17060.58310149533</v>
+        <v>10450.77425068747</v>
       </c>
       <c r="D137">
-        <v>10479.32252463269</v>
+        <v>170868.7100177913</v>
       </c>
       <c r="E137">
-        <v>90067.94360840032</v>
+        <v>15432.76941444757</v>
       </c>
       <c r="F137">
-        <v>1201.0238630335</v>
+        <v>470.8762530635817</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>362.5</v>
+        <v>436</v>
       </c>
       <c r="B138">
-        <v>540633.6825389198</v>
+        <v>174800.6484452077</v>
       </c>
       <c r="C138">
-        <v>17987.71875915338</v>
+        <v>9043.714018232107</v>
       </c>
       <c r="D138">
-        <v>10917.41595369806</v>
+        <v>168417.2668559662</v>
       </c>
       <c r="E138">
-        <v>113557.8959061276</v>
+        <v>14157.18782019007</v>
       </c>
       <c r="F138">
-        <v>1353.583312026416</v>
+        <v>429.9353504932341</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>365.1</v>
+        <v>438.3</v>
       </c>
       <c r="B139">
-        <v>627789.4387759884</v>
+        <v>170595.5192679679</v>
       </c>
       <c r="C139">
-        <v>17200.56776346248</v>
+        <v>8137.696502483313</v>
       </c>
       <c r="D139">
-        <v>13709.60852568501</v>
+        <v>170454.8490049673</v>
       </c>
       <c r="E139">
-        <v>140385.6680687758</v>
+        <v>13354.98888073905</v>
       </c>
       <c r="F139">
-        <v>1483.867906540147</v>
+        <v>858.4971341696892</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>367.4</v>
+        <v>440.9</v>
       </c>
       <c r="B140">
-        <v>722808.7616010876</v>
+        <v>161756.2428067402</v>
       </c>
       <c r="C140">
-        <v>19047.70342112054</v>
+        <v>8574.807136854257</v>
       </c>
       <c r="D140">
-        <v>16987.70195475038</v>
+        <v>158529.5070864468</v>
       </c>
       <c r="E140">
-        <v>172775.620366503</v>
+        <v>12182.93790570746</v>
       </c>
       <c r="F140">
-        <v>1756.427355533063</v>
+        <v>775.5669765865521</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>369.6</v>
+        <v>443.2</v>
       </c>
       <c r="B141">
-        <v>850575.9399555303</v>
+        <v>150111.1136295003</v>
       </c>
       <c r="C141">
-        <v>20386.26796322823</v>
+        <v>7658.789621105478</v>
       </c>
       <c r="D141">
-        <v>18701.09566950855</v>
+        <v>148167.0892354479</v>
       </c>
       <c r="E141">
-        <v>208702.96604259</v>
+        <v>11600.73896625645</v>
       </c>
       <c r="F141">
-        <v>1349.745089352373</v>
+        <v>774.1287602630061</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>372.3</v>
+        <v>445.5</v>
       </c>
       <c r="B142">
-        <v>980713.8406632553</v>
+        <v>143745.9844522605</v>
       </c>
       <c r="C142">
-        <v>20427.68808308767</v>
+        <v>8762.77210535668</v>
       </c>
       <c r="D142">
-        <v>21777.9879558027</v>
+        <v>131514.6713844489</v>
       </c>
       <c r="E142">
-        <v>240633.3448268785</v>
+        <v>9768.540026805415</v>
       </c>
       <c r="F142">
-        <v>1299.271399039709</v>
+        <v>612.6905439394611</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>374.5</v>
+        <v>447.7</v>
       </c>
       <c r="B143">
-        <v>1089751.019017698</v>
+        <v>124198.9043696831</v>
       </c>
       <c r="C143">
-        <v>20266.25262519538</v>
+        <v>9345.711872901322</v>
       </c>
       <c r="D143">
-        <v>22311.38167056087</v>
+        <v>113513.2282226239</v>
       </c>
       <c r="E143">
-        <v>267030.6905029654</v>
+        <v>9302.958432547915</v>
       </c>
       <c r="F143">
-        <v>1502.58913285902</v>
+        <v>681.7496413691135</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>376.8</v>
+        <v>450</v>
       </c>
       <c r="B144">
-        <v>1151220.341842797</v>
+        <v>121543.7751924433</v>
       </c>
       <c r="C144">
-        <v>20413.38828285342</v>
+        <v>19309.69435715254</v>
       </c>
       <c r="D144">
-        <v>24209.47509962626</v>
+        <v>99950.81037162495</v>
       </c>
       <c r="E144">
-        <v>261530.6428006927</v>
+        <v>7730.759493096893</v>
       </c>
       <c r="F144">
-        <v>1435.148581851936</v>
+        <v>630.3114250455687</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>379.1</v>
+        <v>452.6</v>
       </c>
       <c r="B145">
-        <v>1118089.664667896</v>
+        <v>138894.4987312157</v>
       </c>
       <c r="C145">
-        <v>20730.52394051147</v>
+        <v>7806.804991523468</v>
       </c>
       <c r="D145">
-        <v>23877.56852869163</v>
+        <v>78355.46845310443</v>
       </c>
       <c r="E145">
-        <v>231680.59509842</v>
+        <v>7028.708518065301</v>
       </c>
       <c r="F145">
-        <v>1667.708030844852</v>
+        <v>1127.381267462431</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>381.7</v>
+        <v>454.9</v>
       </c>
       <c r="B146">
-        <v>1038805.420904965</v>
+        <v>113959.3695539757</v>
       </c>
       <c r="C146">
-        <v>21353.37294482059</v>
+        <v>7710.787475774689</v>
       </c>
       <c r="D146">
-        <v>19999.76110067857</v>
+        <v>67823.0506021055</v>
       </c>
       <c r="E146">
-        <v>187398.3672610682</v>
+        <v>6216.509578614283</v>
       </c>
       <c r="F146">
-        <v>1207.992625358583</v>
+        <v>895.9430511388855</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>384</v>
+        <v>457.5</v>
       </c>
       <c r="B147">
-        <v>910414.743730064</v>
+        <v>103790.0930927481</v>
       </c>
       <c r="C147">
-        <v>19520.50860247863</v>
+        <v>7617.898110145632</v>
       </c>
       <c r="D147">
-        <v>19847.85452974393</v>
+        <v>59317.70868358497</v>
       </c>
       <c r="E147">
-        <v>141928.3195587955</v>
+        <v>5814.458603582691</v>
       </c>
       <c r="F147">
-        <v>1230.552074351499</v>
+        <v>443.0128935557473</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>386.3</v>
+        <v>459.8</v>
       </c>
       <c r="B148">
-        <v>767334.0665551632</v>
+        <v>86214.96391550824</v>
       </c>
       <c r="C148">
-        <v>19717.64426013667</v>
+        <v>7021.880594396835</v>
       </c>
       <c r="D148">
-        <v>15765.94795880931</v>
+        <v>55735.29083258607</v>
       </c>
       <c r="E148">
-        <v>106218.2718565227</v>
+        <v>5722.259664131669</v>
       </c>
       <c r="F148">
-        <v>1353.111523344415</v>
+        <v>861.5746772322022</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>388.9</v>
+        <v>462.4</v>
       </c>
       <c r="B149">
-        <v>644569.8227922318</v>
+        <v>96535.6874542805</v>
       </c>
       <c r="C149">
-        <v>20220.49326444578</v>
+        <v>6678.991228767778</v>
       </c>
       <c r="D149">
-        <v>16638.14053079626</v>
+        <v>50589.94891406554</v>
       </c>
       <c r="E149">
-        <v>78766.04401917093</v>
+        <v>4230.208689100082</v>
       </c>
       <c r="F149">
-        <v>1333.396117858146</v>
+        <v>568.6445196490643</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>391.2</v>
+        <v>464.7</v>
       </c>
       <c r="B150">
-        <v>516639.1456173309</v>
+        <v>95960.55827704066</v>
       </c>
       <c r="C150">
-        <v>19247.62892210384</v>
+        <v>5472.973713018999</v>
       </c>
       <c r="D150">
-        <v>14176.23395986163</v>
+        <v>49507.53106306661</v>
       </c>
       <c r="E150">
-        <v>61835.9963168982</v>
+        <v>5358.00974964906</v>
       </c>
       <c r="F150">
-        <v>1155.955566851062</v>
+        <v>627.2063033255192</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>393.4</v>
+        <v>466.9</v>
       </c>
       <c r="B151">
-        <v>432116.3239717734</v>
+        <v>90823.47819446333</v>
       </c>
       <c r="C151">
-        <v>18826.19346421153</v>
+        <v>10355.91348056364</v>
       </c>
       <c r="D151">
-        <v>16769.62767461982</v>
+        <v>49546.08790124158</v>
       </c>
       <c r="E151">
-        <v>49483.34199298514</v>
+        <v>4912.428155391561</v>
       </c>
       <c r="F151">
-        <v>1219.273300670372</v>
+        <v>676.2654007551716</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>396.1</v>
+        <v>469.2</v>
       </c>
       <c r="B152">
-        <v>352854.2246794985</v>
+        <v>75338.34901722349</v>
       </c>
       <c r="C152">
-        <v>16457.61358407098</v>
+        <v>6689.895964814843</v>
       </c>
       <c r="D152">
-        <v>20326.51996091395</v>
+        <v>50023.67005024265</v>
       </c>
       <c r="E152">
-        <v>39823.72077727366</v>
+        <v>3450.229215940538</v>
       </c>
       <c r="F152">
-        <v>1148.799610357708</v>
+        <v>744.8271844316268</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>398.3</v>
+        <v>471.5</v>
       </c>
       <c r="B153">
-        <v>296311.4030339412</v>
+        <v>77283.21983998365</v>
       </c>
       <c r="C153">
-        <v>16186.17812617867</v>
+        <v>5803.878449066049</v>
       </c>
       <c r="D153">
-        <v>19179.91367567214</v>
+        <v>48651.25219924372</v>
       </c>
       <c r="E153">
-        <v>36831.0664533606</v>
+        <v>4148.030276489517</v>
       </c>
       <c r="F153">
-        <v>1292.117344177019</v>
+        <v>1563.388968108082</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>400.6</v>
+        <v>474.1</v>
       </c>
       <c r="B154">
-        <v>273820.7258590403</v>
+        <v>82733.94337875591</v>
       </c>
       <c r="C154">
-        <v>17443.31378383672</v>
+        <v>8110.989083436989</v>
       </c>
       <c r="D154">
-        <v>27358.00710473751</v>
+        <v>45585.9102807232</v>
       </c>
       <c r="E154">
-        <v>32771.01875108786</v>
+        <v>4145.979301457925</v>
       </c>
       <c r="F154">
-        <v>1134.676793169934</v>
+        <v>600.4588105249436</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>402.5</v>
+        <v>476.1</v>
       </c>
       <c r="B155">
-        <v>252381.4708015136</v>
+        <v>70742.96148550385</v>
       </c>
       <c r="C155">
-        <v>16836.16497929339</v>
+        <v>8241.843417568469</v>
       </c>
       <c r="D155">
-        <v>29777.30167657412</v>
+        <v>48236.41649724586</v>
       </c>
       <c r="E155">
-        <v>30900.54456225385</v>
+        <v>4083.632397587468</v>
       </c>
       <c r="F155">
-        <v>940.2693814684305</v>
+        <v>710.5125354609909</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>405.4</v>
+        <v>479</v>
       </c>
       <c r="B156">
-        <v>229853.6604505516</v>
+        <v>66529.53774028845</v>
       </c>
       <c r="C156">
-        <v>17494.72733025353</v>
+        <v>6642.082202059139</v>
       </c>
       <c r="D156">
-        <v>35003.59339148264</v>
+        <v>45128.15051120374</v>
       </c>
       <c r="E156">
-        <v>28566.13658982301</v>
+        <v>4051.729386975313</v>
       </c>
       <c r="F156">
-        <v>1168.279121502977</v>
+        <v>916.0904366182604</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>407.7</v>
+        <v>481.2</v>
       </c>
       <c r="B157">
-        <v>219622.9832756507</v>
+        <v>75762.45765771114</v>
       </c>
       <c r="C157">
-        <v>15931.86298791159</v>
+        <v>7575.021969603777</v>
       </c>
       <c r="D157">
-        <v>42951.68682054801</v>
+        <v>47356.70734937868</v>
       </c>
       <c r="E157">
-        <v>26796.08888755027</v>
+        <v>3976.147792717815</v>
       </c>
       <c r="F157">
-        <v>1070.838570495893</v>
+        <v>615.149534047913</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>410</v>
+        <v>483.5</v>
       </c>
       <c r="B158">
-        <v>218002.3061007498</v>
+        <v>74887.3284804713</v>
       </c>
       <c r="C158">
-        <v>13788.99864556963</v>
+        <v>6629.004453854997</v>
       </c>
       <c r="D158">
-        <v>50119.78024961338</v>
+        <v>46624.28949837977</v>
       </c>
       <c r="E158">
-        <v>24816.04118527753</v>
+        <v>4143.948853266789</v>
       </c>
       <c r="F158">
-        <v>1083.398019488808</v>
+        <v>833.711317724368</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>412.6</v>
+        <v>485.8</v>
       </c>
       <c r="B159">
-        <v>210848.0623378184</v>
+        <v>73112.19930323146</v>
       </c>
       <c r="C159">
-        <v>18581.84764987872</v>
+        <v>6922.9869381062</v>
       </c>
       <c r="D159">
-        <v>60401.97282160031</v>
+        <v>47451.87164738084</v>
       </c>
       <c r="E159">
-        <v>25633.81334792574</v>
+        <v>3951.749913815767</v>
       </c>
       <c r="F159">
-        <v>1103.682614002539</v>
+        <v>722.273101400822</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>414.9</v>
+        <v>488.4</v>
       </c>
       <c r="B160">
-        <v>203747.3851629176</v>
+        <v>74202.92284200373</v>
       </c>
       <c r="C160">
-        <v>13648.98330753678</v>
+        <v>4980.097572477147</v>
       </c>
       <c r="D160">
-        <v>69660.06625066568</v>
+        <v>47416.52972886031</v>
       </c>
       <c r="E160">
-        <v>23963.765645653</v>
+        <v>4199.698938784179</v>
       </c>
       <c r="F160">
-        <v>1166.242062995455</v>
+        <v>659.342943817685</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>417.2</v>
+        <v>490.7</v>
       </c>
       <c r="B161">
-        <v>209966.7079880167</v>
+        <v>62667.79366476388</v>
       </c>
       <c r="C161">
-        <v>16866.11896519484</v>
+        <v>4854.080056728364</v>
       </c>
       <c r="D161">
-        <v>80878.15967973109</v>
+        <v>44634.1118778614</v>
       </c>
       <c r="E161">
-        <v>23083.71794338026</v>
+        <v>2967.499999333157</v>
       </c>
       <c r="F161">
-        <v>1088.801511988371</v>
+        <v>557.904727494139</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>419.5</v>
+        <v>492.9</v>
       </c>
       <c r="B162">
-        <v>221686.0308131158</v>
+        <v>64980.71358218666</v>
       </c>
       <c r="C162">
-        <v>14303.25462285288</v>
+        <v>6667.019824273006</v>
       </c>
       <c r="D162">
-        <v>93656.25310879646</v>
+        <v>48372.66871603634</v>
       </c>
       <c r="E162">
-        <v>22423.67024110753</v>
+        <v>3091.918405075659</v>
       </c>
       <c r="F162">
-        <v>1411.360960981287</v>
+        <v>346.9638249237924</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>422.1</v>
+        <v>495.2</v>
       </c>
       <c r="B163">
-        <v>208931.7870501845</v>
+        <v>66115.58440494671</v>
       </c>
       <c r="C163">
-        <v>15436.10362716197</v>
+        <v>8051.002308524208</v>
       </c>
       <c r="D163">
-        <v>103358.4456807834</v>
+        <v>47670.25086503741</v>
       </c>
       <c r="E163">
-        <v>21781.44240375573</v>
+        <v>3169.719465624636</v>
       </c>
       <c r="F163">
-        <v>1411.645555495017</v>
+        <v>595.5256086002476</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>424</v>
+        <v>497.9</v>
       </c>
       <c r="B164">
-        <v>223542.5319926576</v>
+        <v>62738.25884905644</v>
       </c>
       <c r="C164">
-        <v>16258.95482261864</v>
+        <v>7279.155659601731</v>
       </c>
       <c r="D164">
-        <v>119477.74025262</v>
+        <v>47973.93425734303</v>
       </c>
       <c r="E164">
-        <v>21390.96821492173</v>
+        <v>2561.051145399525</v>
       </c>
       <c r="F164">
-        <v>997.238143793513</v>
+        <v>762.0981372639119</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>426.6</v>
+        <v>500.1</v>
       </c>
       <c r="B165">
-        <v>210988.2882297262</v>
+        <v>55031.17876647924</v>
       </c>
       <c r="C165">
-        <v>13611.80382692772</v>
+        <v>5882.095427146354</v>
       </c>
       <c r="D165">
-        <v>129299.9328246069</v>
+        <v>45362.49109551797</v>
       </c>
       <c r="E165">
-        <v>20538.74037756994</v>
+        <v>3885.469551142022</v>
       </c>
       <c r="F165">
-        <v>1297.522738307244</v>
+        <v>651.1572346935634</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>428.9</v>
+        <v>502.3</v>
       </c>
       <c r="B166">
-        <v>183187.6110548253</v>
+        <v>53924.09868390192</v>
       </c>
       <c r="C166">
-        <v>13608.93948458579</v>
+        <v>6665.035194690996</v>
       </c>
       <c r="D166">
-        <v>138878.0262536723</v>
+        <v>48811.04793369292</v>
       </c>
       <c r="E166">
-        <v>19228.6926752972</v>
+        <v>3409.887956884524</v>
       </c>
       <c r="F166">
-        <v>1230.08218730016</v>
+        <v>890.2163321232167</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>431.5</v>
+        <v>505</v>
       </c>
       <c r="B167">
-        <v>188593.3672918939</v>
+        <v>46496.77312801166</v>
       </c>
       <c r="C167">
-        <v>14601.78848889488</v>
+        <v>5573.188545768518</v>
       </c>
       <c r="D167">
-        <v>145460.2188256592</v>
+        <v>46654.73132599852</v>
       </c>
       <c r="E167">
-        <v>17046.4648379454</v>
+        <v>3271.219636659412</v>
       </c>
       <c r="F167">
-        <v>990.3667818138908</v>
+        <v>656.7888607868811</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>433.8</v>
+        <v>506.9</v>
       </c>
       <c r="B168">
-        <v>187452.6901169931</v>
+        <v>49843.84032942224</v>
       </c>
       <c r="C168">
-        <v>16228.92414655293</v>
+        <v>6903.000163193437</v>
       </c>
       <c r="D168">
-        <v>153788.3122547246</v>
+        <v>47076.21223169508</v>
       </c>
       <c r="E168">
-        <v>15346.41713567267</v>
+        <v>3735.49007798248</v>
       </c>
       <c r="F168">
-        <v>822.9262308068066</v>
+        <v>517.339899476126</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>436</v>
+        <v>509.5</v>
       </c>
       <c r="B169">
-        <v>166009.8684714358</v>
+        <v>49274.5638681945</v>
       </c>
       <c r="C169">
-        <v>14767.48868866064</v>
+        <v>6730.110797564363</v>
       </c>
       <c r="D169">
-        <v>151021.7059694828</v>
+        <v>48720.87031317455</v>
       </c>
       <c r="E169">
-        <v>14053.76281175962</v>
+        <v>2553.439102950891</v>
       </c>
       <c r="F169">
-        <v>776.2439646261175</v>
+        <v>524.4097418929878</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>438.3</v>
+        <v>511.8</v>
       </c>
       <c r="B170">
-        <v>161579.1912965349</v>
+        <v>40909.43469095466</v>
       </c>
       <c r="C170">
-        <v>13804.62434631868</v>
+        <v>8474.093281815569</v>
       </c>
       <c r="D170">
-        <v>152729.7993985482</v>
+        <v>47738.45246217562</v>
       </c>
       <c r="E170">
-        <v>13233.71510948687</v>
+        <v>2331.240163499866</v>
       </c>
       <c r="F170">
-        <v>1198.803413619033</v>
+        <v>642.9715255694427</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>440.9</v>
+        <v>514</v>
       </c>
       <c r="B171">
-        <v>152484.9475336035</v>
+        <v>37942.35460837733</v>
       </c>
       <c r="C171">
-        <v>14177.47335062779</v>
+        <v>5777.033049360225</v>
       </c>
       <c r="D171">
-        <v>140431.9919705351</v>
+        <v>45737.00930035056</v>
       </c>
       <c r="E171">
-        <v>12041.48727213508</v>
+        <v>2555.658569242366</v>
       </c>
       <c r="F171">
-        <v>1109.088008132765</v>
+        <v>692.0306229990954</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>443.2</v>
+        <v>516.6</v>
       </c>
       <c r="B172">
-        <v>140614.2703587026</v>
+        <v>42193.07814714971</v>
       </c>
       <c r="C172">
-        <v>13204.60900828583</v>
+        <v>8664.14368373115</v>
       </c>
       <c r="D172">
-        <v>129740.0853996005</v>
+        <v>47901.66738183004</v>
       </c>
       <c r="E172">
-        <v>11441.43956986234</v>
+        <v>3203.607594210779</v>
       </c>
       <c r="F172">
-        <v>1101.64745712568</v>
+        <v>709.1004654159572</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>445.5</v>
+        <v>518.9</v>
       </c>
       <c r="B173">
-        <v>134023.5931838018</v>
+        <v>38197.94896990987</v>
       </c>
       <c r="C173">
-        <v>14251.74466594389</v>
+        <v>6908.126167982371</v>
       </c>
       <c r="D173">
-        <v>112758.1788286659</v>
+        <v>45039.24953083113</v>
       </c>
       <c r="E173">
-        <v>9591.391867589604</v>
+        <v>3121.408654759757</v>
       </c>
       <c r="F173">
-        <v>934.2069061185964</v>
+        <v>757.6622490924121</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>447.7</v>
+        <v>521.2</v>
       </c>
       <c r="B174">
-        <v>114260.7715382444</v>
+        <v>29652.81979266991</v>
       </c>
       <c r="C174">
-        <v>14780.30920805158</v>
+        <v>5582.108652233574</v>
       </c>
       <c r="D174">
-        <v>94441.57254342406</v>
+        <v>46216.8316798322</v>
       </c>
       <c r="E174">
-        <v>9108.737543676549</v>
+        <v>2509.20971530873</v>
       </c>
       <c r="F174">
-        <v>997.5246399379068</v>
+        <v>646.2240327688671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>450</v>
+        <v>523.8</v>
       </c>
       <c r="B175">
-        <v>111380.0943633435</v>
+        <v>40253.54333144229</v>
       </c>
       <c r="C175">
-        <v>24687.44486570963</v>
+        <v>6169.219286604535</v>
       </c>
       <c r="D175">
-        <v>80549.66597248943</v>
+        <v>46491.48976131167</v>
       </c>
       <c r="E175">
-        <v>7518.68984140381</v>
+        <v>3157.158740277147</v>
       </c>
       <c r="F175">
-        <v>940.0840889308226</v>
+        <v>563.29387518573</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>452.6</v>
+        <v>526</v>
       </c>
       <c r="B176">
-        <v>128475.8506004121</v>
+        <v>38666.46324886497</v>
       </c>
       <c r="C176">
-        <v>13120.29387001872</v>
+        <v>3862.159054149159</v>
       </c>
       <c r="D176">
-        <v>58581.85854447637</v>
+        <v>44680.04659948661</v>
       </c>
       <c r="E176">
-        <v>6796.462004052016</v>
+        <v>2261.577146019643</v>
       </c>
       <c r="F176">
-        <v>1430.368683444553</v>
+        <v>552.3529726153815</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>454.9</v>
+        <v>528.3</v>
       </c>
       <c r="B177">
-        <v>103315.1734255112</v>
+        <v>36791.33407162512</v>
       </c>
       <c r="C177">
-        <v>12967.42952767679</v>
+        <v>7006.141538400379</v>
       </c>
       <c r="D177">
-        <v>47719.95197354177</v>
+        <v>44617.6287484877</v>
       </c>
       <c r="E177">
-        <v>5966.414301779279</v>
+        <v>2479.378206568626</v>
       </c>
       <c r="F177">
-        <v>1192.928132437469</v>
+        <v>780.9147562918367</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>457.5</v>
+        <v>530.6</v>
       </c>
       <c r="B178">
-        <v>92890.92966257982</v>
+        <v>39366.20489438528</v>
       </c>
       <c r="C178">
-        <v>12810.27853198588</v>
+        <v>3720.124022651582</v>
       </c>
       <c r="D178">
-        <v>38842.1445455287</v>
+        <v>44235.21089748877</v>
       </c>
       <c r="E178">
-        <v>5544.186464427485</v>
+        <v>2587.179267117599</v>
       </c>
       <c r="F178">
-        <v>733.2127269512005</v>
+        <v>919.4765399682915</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>459.8</v>
+        <v>533.1</v>
       </c>
       <c r="B179">
-        <v>75090.25248767898</v>
+        <v>40854.97752782018</v>
       </c>
       <c r="C179">
-        <v>12157.41418964393</v>
+        <v>5046.191940315946</v>
       </c>
       <c r="D179">
-        <v>34930.23797459407</v>
+        <v>44010.84366814212</v>
       </c>
       <c r="E179">
-        <v>5434.138762154747</v>
+        <v>2611.745637279531</v>
       </c>
       <c r="F179">
-        <v>1145.772175944116</v>
+        <v>327.0436961383509</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>462.4</v>
+        <v>535.1</v>
       </c>
       <c r="B180">
-        <v>85156.00872474755</v>
+        <v>37343.99563456812</v>
       </c>
       <c r="C180">
-        <v>11750.26319395304</v>
+        <v>6737.04627444743</v>
       </c>
       <c r="D180">
-        <v>29412.43054658101</v>
+        <v>43411.34988466479</v>
       </c>
       <c r="E180">
-        <v>3921.910924802957</v>
+        <v>2359.398733409078</v>
       </c>
       <c r="F180">
-        <v>846.0567704578473</v>
+        <v>677.0974210743991</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>464.7</v>
+        <v>537.7</v>
       </c>
       <c r="B181">
-        <v>84355.3315498467</v>
+        <v>41514.7191733405</v>
       </c>
       <c r="C181">
-        <v>10487.39885161108</v>
+        <v>6594.15690881837</v>
       </c>
       <c r="D181">
-        <v>28000.52397564638</v>
+        <v>44676.00796614426</v>
       </c>
       <c r="E181">
-        <v>5031.863222530216</v>
+        <v>1977.347758377486</v>
       </c>
       <c r="F181">
-        <v>898.6162194507631</v>
+        <v>284.1672634912609</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>466.9</v>
+        <v>540</v>
       </c>
       <c r="B182">
-        <v>79002.5099042894</v>
+        <v>42129.58999610054</v>
       </c>
       <c r="C182">
-        <v>15315.96339371879</v>
+        <v>8498.139393069587</v>
       </c>
       <c r="D182">
-        <v>27723.91769040457</v>
+        <v>42403.59011514536</v>
       </c>
       <c r="E182">
-        <v>4569.208898617161</v>
+        <v>2485.148818926469</v>
       </c>
       <c r="F182">
-        <v>941.9339532700744</v>
+        <v>202.729047167716</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>469.2</v>
+        <v>542.6</v>
       </c>
       <c r="B183">
-        <v>63291.83272938855</v>
+        <v>37060.31353487292</v>
       </c>
       <c r="C183">
-        <v>11593.09905137683</v>
+        <v>6545.250027440519</v>
       </c>
       <c r="D183">
-        <v>27872.01111946994</v>
+        <v>41798.24819662482</v>
       </c>
       <c r="E183">
-        <v>3089.161196344423</v>
+        <v>2183.097843894876</v>
       </c>
       <c r="F183">
-        <v>1004.493402262989</v>
+        <v>169.7988895845778</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>471.5</v>
+        <v>544.8</v>
       </c>
       <c r="B184">
-        <v>65011.1555544877</v>
+        <v>40863.23345229559</v>
       </c>
       <c r="C184">
-        <v>10650.23470903488</v>
+        <v>6498.189794985179</v>
       </c>
       <c r="D184">
-        <v>26170.10454853531</v>
+        <v>40396.80503479977</v>
       </c>
       <c r="E184">
-        <v>3769.113494071682</v>
+        <v>2477.516249637382</v>
       </c>
       <c r="F184">
-        <v>1817.052851255905</v>
+        <v>638.8579870142303</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>474.1</v>
+        <v>547</v>
       </c>
       <c r="B185">
-        <v>70206.91179155628</v>
+        <v>38746.15336971838</v>
       </c>
       <c r="C185">
-        <v>12893.08371334396</v>
+        <v>4351.129562529795</v>
       </c>
       <c r="D185">
-        <v>22732.29712052224</v>
+        <v>41175.3618729747</v>
       </c>
       <c r="E185">
-        <v>3746.885656719887</v>
+        <v>1971.934655379879</v>
       </c>
       <c r="F185">
-        <v>847.3374457696361</v>
+        <v>1567.917084443883</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>476.1</v>
+        <v>549.6</v>
       </c>
       <c r="B186">
-        <v>58019.80120468601</v>
+        <v>38516.87690849065</v>
       </c>
       <c r="C186">
-        <v>12974.50602435097</v>
+        <v>3978.240196900742</v>
       </c>
       <c r="D186">
-        <v>25096.29140666605</v>
+        <v>40260.01995445419</v>
       </c>
       <c r="E186">
-        <v>3669.018089526202</v>
+        <v>2049.883680348287</v>
       </c>
       <c r="F186">
-        <v>952.171749241737</v>
+        <v>534.9869268607447</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>479</v>
+        <v>551.9</v>
       </c>
       <c r="B187">
-        <v>53521.99085372401</v>
+        <v>42281.74773125081</v>
       </c>
       <c r="C187">
-        <v>11303.06837531113</v>
+        <v>4442.222681151959</v>
       </c>
       <c r="D187">
-        <v>21572.58312157458</v>
+        <v>40387.60210345526</v>
       </c>
       <c r="E187">
-        <v>3614.610117095361</v>
+        <v>1717.684740897269</v>
       </c>
       <c r="F187">
-        <v>1150.181489276283</v>
+        <v>713.5487105371997</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>481.2</v>
+        <v>554.5</v>
       </c>
       <c r="B188">
-        <v>62539.16920816668</v>
+        <v>43832.47127002318</v>
       </c>
       <c r="C188">
-        <v>12181.63291741882</v>
+        <v>7709.333315522892</v>
       </c>
       <c r="D188">
-        <v>23485.97683633276</v>
+        <v>41422.26018493475</v>
       </c>
       <c r="E188">
-        <v>3521.955793182306</v>
+        <v>2025.633765865677</v>
       </c>
       <c r="F188">
-        <v>843.4992230955941</v>
+        <v>520.6185529540614</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>483.5</v>
+        <v>556.8</v>
       </c>
       <c r="B189">
-        <v>61438.49203326584</v>
+        <v>47897.34209278322</v>
       </c>
       <c r="C189">
-        <v>11178.76857507688</v>
+        <v>4063.315799774109</v>
       </c>
       <c r="D189">
-        <v>22424.07026539813</v>
+        <v>40069.84233393582</v>
       </c>
       <c r="E189">
-        <v>3671.908090909564</v>
+        <v>1953.434826414659</v>
       </c>
       <c r="F189">
-        <v>1056.058672088509</v>
+        <v>559.1803366305166</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>485.8</v>
+        <v>559</v>
       </c>
       <c r="B190">
-        <v>59437.81485836499</v>
+        <v>47130.26201020601</v>
       </c>
       <c r="C190">
-        <v>11415.90423273492</v>
+        <v>4076.255567318747</v>
       </c>
       <c r="D190">
-        <v>22922.16369446351</v>
+        <v>38478.39917211077</v>
       </c>
       <c r="E190">
-        <v>3461.860388636826</v>
+        <v>1927.853232157156</v>
       </c>
       <c r="F190">
-        <v>938.6181210814259</v>
+        <v>1258.239434060169</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>488.4</v>
+        <v>561.6</v>
       </c>
       <c r="B191">
-        <v>60273.57109543357</v>
+        <v>45890.98554897827</v>
       </c>
       <c r="C191">
-        <v>9408.753237044035</v>
+        <v>2643.366201689672</v>
       </c>
       <c r="D191">
-        <v>22514.35626645045</v>
+        <v>40223.05725359024</v>
       </c>
       <c r="E191">
-        <v>3689.632551285036</v>
+        <v>1685.802257125564</v>
       </c>
       <c r="F191">
-        <v>868.902715595156</v>
+        <v>1635.309276477031</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>490.7</v>
+        <v>563.9</v>
       </c>
       <c r="B192">
-        <v>48512.89392053272</v>
+        <v>48205.85637173843</v>
       </c>
       <c r="C192">
-        <v>9225.888894702075</v>
+        <v>4907.348685940897</v>
       </c>
       <c r="D192">
-        <v>19402.44969551582</v>
+        <v>39410.63940259133</v>
       </c>
       <c r="E192">
-        <v>2439.584849012295</v>
+        <v>2253.603317674546</v>
       </c>
       <c r="F192">
-        <v>761.4621645880723</v>
+        <v>743.8710601534858</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>492.9</v>
+        <v>566.5</v>
       </c>
       <c r="B193">
-        <v>50610.07227497529</v>
+        <v>39776.57991051081</v>
       </c>
       <c r="C193">
-        <v>10984.45343680978</v>
+        <v>1554.459320311822</v>
       </c>
       <c r="D193">
-        <v>22825.84341027401</v>
+        <v>38765.29748407078</v>
       </c>
       <c r="E193">
-        <v>2546.93052509924</v>
+        <v>2321.552342642954</v>
       </c>
       <c r="F193">
-        <v>544.7798984073831</v>
+        <v>500.9409025703476</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>495.2</v>
+        <v>568.7</v>
       </c>
       <c r="B194">
-        <v>51519.39510007444</v>
+        <v>36759.49982793349</v>
       </c>
       <c r="C194">
-        <v>12311.58909446784</v>
+        <v>3117.39908785646</v>
       </c>
       <c r="D194">
-        <v>21793.93683933938</v>
+        <v>40053.85432224573</v>
       </c>
       <c r="E194">
-        <v>2606.882822826502</v>
+        <v>2695.97074838545</v>
       </c>
       <c r="F194">
-        <v>787.3393474002989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>497.9</v>
+        <v>571</v>
       </c>
       <c r="B195">
-        <v>47877.2958077995</v>
+        <v>50314.37065069365</v>
       </c>
       <c r="C195">
-        <v>11473.00921432729</v>
+        <v>4691.381572107684</v>
       </c>
       <c r="D195">
-        <v>21710.82912563351</v>
+        <v>40981.43647124682</v>
       </c>
       <c r="E195">
-        <v>1977.261607115026</v>
+        <v>1613.771808934433</v>
       </c>
       <c r="F195">
-        <v>946.8656570876346</v>
+        <v>458.5617836764551</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>500.1</v>
+        <v>573.2</v>
       </c>
       <c r="B196">
-        <v>39954.47416224217</v>
+        <v>50357.29056811632</v>
       </c>
       <c r="C196">
-        <v>10021.57375643497</v>
+        <v>1504.321339652308</v>
       </c>
       <c r="D196">
-        <v>18784.22284039169</v>
+        <v>37919.99330942176</v>
       </c>
       <c r="E196">
-        <v>3284.607283201966</v>
+        <v>2138.19021467693</v>
       </c>
       <c r="F196">
-        <v>830.1833909069455</v>
+        <v>587.6208811061076</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>502.3</v>
+        <v>575.5</v>
       </c>
       <c r="B197">
-        <v>38631.65251668484</v>
+        <v>54632.16139087648</v>
       </c>
       <c r="C197">
-        <v>10750.13829854268</v>
+        <v>1688.303823903525</v>
       </c>
       <c r="D197">
-        <v>21917.61655514988</v>
+        <v>37667.57545842284</v>
       </c>
       <c r="E197">
-        <v>2791.952959288912</v>
+        <v>1185.991275225908</v>
       </c>
       <c r="F197">
-        <v>1063.501124726257</v>
+        <v>776.1826647825628</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>505</v>
+        <v>578.1</v>
       </c>
       <c r="B198">
-        <v>30939.55322440989</v>
+        <v>51722.88492964886</v>
       </c>
       <c r="C198">
-        <v>9591.558418402128</v>
+        <v>3955.414458274472</v>
       </c>
       <c r="D198">
-        <v>19374.50884144401</v>
+        <v>37752.23353990231</v>
       </c>
       <c r="E198">
-        <v>2632.331743577439</v>
+        <v>2213.94030019432</v>
       </c>
       <c r="F198">
-        <v>823.0274344135926</v>
+        <v>673.2525071994246</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>506.9</v>
+        <v>580.3</v>
       </c>
       <c r="B199">
-        <v>34100.29816688315</v>
+        <v>45155.80484707153</v>
       </c>
       <c r="C199">
-        <v>10874.40961385879</v>
+        <v>2908.354225819132</v>
       </c>
       <c r="D199">
-        <v>19523.80341328062</v>
+        <v>39730.79037807725</v>
       </c>
       <c r="E199">
-        <v>3081.857554743437</v>
+        <v>2278.358705936822</v>
       </c>
       <c r="F199">
-        <v>678.6200227120883</v>
+        <v>482.311604629078</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>509.5</v>
+        <v>582.6</v>
       </c>
       <c r="B200">
-        <v>33276.05440395173</v>
+        <v>48850.6756698317</v>
       </c>
       <c r="C200">
-        <v>10637.25861816787</v>
+        <v>1652.336710070327</v>
       </c>
       <c r="D200">
-        <v>20795.99598526756</v>
+        <v>39758.37252707833</v>
       </c>
       <c r="E200">
-        <v>1879.629717391643</v>
+        <v>2906.159766485796</v>
       </c>
       <c r="F200">
-        <v>678.904617225819</v>
+        <v>750.873388305532</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>511.8</v>
+        <v>584.9</v>
       </c>
       <c r="B201">
-        <v>24685.37722905088</v>
+        <v>46305.54649259185</v>
       </c>
       <c r="C201">
-        <v>12324.39427582593</v>
+        <v>3886.319194321537</v>
       </c>
       <c r="D201">
-        <v>19484.08941433294</v>
+        <v>39195.95467607941</v>
       </c>
       <c r="E201">
-        <v>1639.582015118905</v>
+        <v>2173.960827034778</v>
       </c>
       <c r="F201">
-        <v>791.4640662187346</v>
+        <v>949.4351719819872</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>514</v>
+        <v>587.1</v>
       </c>
       <c r="B202">
-        <v>21502.55558349356</v>
+        <v>41198.46641001452</v>
       </c>
       <c r="C202">
-        <v>9572.958817933621</v>
+        <v>2189.25896186616</v>
       </c>
       <c r="D202">
-        <v>17167.48312909112</v>
+        <v>41194.51151425436</v>
       </c>
       <c r="E202">
-        <v>1846.92769120585</v>
+        <v>1848.379232777275</v>
       </c>
       <c r="F202">
-        <v>834.7818000380457</v>
+        <v>828.4942694116396</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>516.6</v>
+        <v>589.7</v>
       </c>
       <c r="B203">
-        <v>25498.31182056214</v>
+        <v>44839.1899487869</v>
       </c>
       <c r="C203">
-        <v>12395.80782224271</v>
+        <v>2906.3695962371</v>
       </c>
       <c r="D203">
-        <v>18959.67570107807</v>
+        <v>41249.16959573382</v>
       </c>
       <c r="E203">
-        <v>2474.699853854057</v>
+        <v>1856.328257745683</v>
       </c>
       <c r="F203">
-        <v>845.0663945517765</v>
+        <v>515.5641118285014</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>518.9</v>
+        <v>592</v>
       </c>
       <c r="B204">
-        <v>21277.6346456613</v>
+        <v>45034.06077154706</v>
       </c>
       <c r="C204">
-        <v>10582.94347990079</v>
+        <v>1500.352080488339</v>
       </c>
       <c r="D204">
-        <v>15767.76913014344</v>
+        <v>43066.75174473492</v>
       </c>
       <c r="E204">
-        <v>2374.652151581319</v>
+        <v>2184.129318294665</v>
       </c>
       <c r="F204">
-        <v>887.6258435446925</v>
+        <v>404.1258955049565</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>521.2</v>
+        <v>594.2</v>
       </c>
       <c r="B205">
-        <v>12506.95747076033</v>
+        <v>39466.98068896974</v>
       </c>
       <c r="C205">
-        <v>9200.079137558812</v>
+        <v>2883.291848032963</v>
       </c>
       <c r="D205">
-        <v>16615.86255920881</v>
+        <v>40335.30858290985</v>
       </c>
       <c r="E205">
-        <v>1744.604449308576</v>
+        <v>2028.547724037162</v>
       </c>
       <c r="F205">
-        <v>770.1852925376083</v>
+        <v>403.184992934608</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>523.8</v>
+        <v>596.4</v>
       </c>
       <c r="B206">
-        <v>22852.71370782903</v>
+        <v>47189.90060639253</v>
       </c>
       <c r="C206">
-        <v>9722.928141867931</v>
+        <v>436.2316155776225</v>
       </c>
       <c r="D206">
-        <v>16518.05513119576</v>
+        <v>40743.8654210848</v>
       </c>
       <c r="E206">
-        <v>2372.376611956792</v>
+        <v>1912.966129779668</v>
       </c>
       <c r="F206">
-        <v>680.4698870513396</v>
+        <v>482.2440903642615</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="B207">
-        <v>21049.89206227158</v>
+        <v>42970.62414516479</v>
       </c>
       <c r="C207">
-        <v>7361.492683975623</v>
+        <v>2203.342249948533</v>
       </c>
       <c r="D207">
-        <v>14391.44884595394</v>
+        <v>41178.52350256426</v>
       </c>
       <c r="E207">
-        <v>1459.722288043732</v>
+        <v>2300.915154748076</v>
       </c>
       <c r="F207">
-        <v>663.78762087065</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1">
-        <v>528.3</v>
-      </c>
-      <c r="B208">
-        <v>18949.21488737074</v>
-      </c>
-      <c r="C208">
-        <v>10448.62834163368</v>
-      </c>
-      <c r="D208">
-        <v>13999.54227501932</v>
-      </c>
-      <c r="E208">
-        <v>1659.674585770995</v>
-      </c>
-      <c r="F208">
-        <v>886.3470698635665</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1">
-        <v>530.6</v>
-      </c>
-      <c r="B209">
-        <v>21298.53771246989</v>
-      </c>
-      <c r="C209">
-        <v>7105.763999291728</v>
-      </c>
-      <c r="D209">
-        <v>13287.63570408469</v>
-      </c>
-      <c r="E209">
-        <v>1749.626883498253</v>
-      </c>
-      <c r="F209">
-        <v>1018.906518856481</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1">
-        <v>533.1</v>
-      </c>
-      <c r="B210">
-        <v>22542.14947888199</v>
-      </c>
-      <c r="C210">
-        <v>8370.04188805048</v>
-      </c>
-      <c r="D210">
-        <v>12705.12856176443</v>
-      </c>
-      <c r="E210">
-        <v>1754.792424506146</v>
-      </c>
-      <c r="F210">
-        <v>419.949398196607</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1">
-        <v>535.1</v>
-      </c>
-      <c r="B211">
-        <v>18835.03889201173</v>
-      </c>
-      <c r="C211">
-        <v>10011.46419905747</v>
-      </c>
-      <c r="D211">
-        <v>11819.12284790824</v>
-      </c>
-      <c r="E211">
-        <v>1486.924857312456</v>
-      </c>
-      <c r="F211">
-        <v>764.7837016687074</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>537.7</v>
-      </c>
-      <c r="B212">
-        <v>22750.7951290803</v>
-      </c>
-      <c r="C212">
-        <v>9804.313203366561</v>
-      </c>
-      <c r="D212">
-        <v>12711.31541989519</v>
-      </c>
-      <c r="E212">
-        <v>1084.697019960662</v>
-      </c>
-      <c r="F212">
-        <v>365.0682961824388</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>540</v>
-      </c>
-      <c r="B213">
-        <v>23140.11795417946</v>
-      </c>
-      <c r="C213">
-        <v>11651.44886102462</v>
-      </c>
-      <c r="D213">
-        <v>10109.40884896056</v>
-      </c>
-      <c r="E213">
-        <v>1574.649317687928</v>
-      </c>
-      <c r="F213">
-        <v>277.6277451753548</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>542.6</v>
-      </c>
-      <c r="B214">
-        <v>17815.87419124803</v>
-      </c>
-      <c r="C214">
-        <v>9634.29786533373</v>
-      </c>
-      <c r="D214">
-        <v>9131.601420947496</v>
-      </c>
-      <c r="E214">
-        <v>1252.421480336135</v>
-      </c>
-      <c r="F214">
-        <v>237.9123396890856</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>544.8</v>
-      </c>
-      <c r="B215">
-        <v>21403.05254569071</v>
-      </c>
-      <c r="C215">
-        <v>9532.862407441426</v>
-      </c>
-      <c r="D215">
-        <v>7414.995135705693</v>
-      </c>
-      <c r="E215">
-        <v>1529.767156423085</v>
-      </c>
-      <c r="F215">
-        <v>701.2300735083975</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>547</v>
-      </c>
-      <c r="B216">
-        <v>19070.23090013328</v>
-      </c>
-      <c r="C216">
-        <v>7331.426949549113</v>
-      </c>
-      <c r="D216">
-        <v>7878.388850463882</v>
-      </c>
-      <c r="E216">
-        <v>1007.112832510025</v>
-      </c>
-      <c r="F216">
-        <v>1624.547807327708</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>549.6</v>
-      </c>
-      <c r="B217">
-        <v>18585.98713720197</v>
-      </c>
-      <c r="C217">
-        <v>6894.275953858225</v>
-      </c>
-      <c r="D217">
-        <v>6590.581422450814</v>
-      </c>
-      <c r="E217">
-        <v>1064.884995158232</v>
-      </c>
-      <c r="F217">
-        <v>584.832401841438</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>551.9</v>
-      </c>
-      <c r="B218">
-        <v>22125.30996230112</v>
-      </c>
-      <c r="C218">
-        <v>7301.411611516283</v>
-      </c>
-      <c r="D218">
-        <v>6388.674851516189</v>
-      </c>
-      <c r="E218">
-        <v>714.8372928854978</v>
-      </c>
-      <c r="F218">
-        <v>757.3918508343545</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>554.5</v>
-      </c>
-      <c r="B219">
-        <v>23421.0661993697</v>
-      </c>
-      <c r="C219">
-        <v>10504.26061582537</v>
-      </c>
-      <c r="D219">
-        <v>7050.867423503121</v>
-      </c>
-      <c r="E219">
-        <v>1002.6094555337</v>
-      </c>
-      <c r="F219">
-        <v>557.6764453480855</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>556.8</v>
-      </c>
-      <c r="B220">
-        <v>27260.38902446885</v>
-      </c>
-      <c r="C220">
-        <v>6801.396273483424</v>
-      </c>
-      <c r="D220">
-        <v>5368.960852568511</v>
-      </c>
-      <c r="E220">
-        <v>912.5617532609704</v>
-      </c>
-      <c r="F220">
-        <v>590.2358943410015</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>559</v>
-      </c>
-      <c r="B221">
-        <v>26277.56737891142</v>
-      </c>
-      <c r="C221">
-        <v>6759.960815591112</v>
-      </c>
-      <c r="D221">
-        <v>3462.354567326685</v>
-      </c>
-      <c r="E221">
-        <v>869.9074293479116</v>
-      </c>
-      <c r="F221">
-        <v>1283.553628160312</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>561.6</v>
-      </c>
-      <c r="B222">
-        <v>24783.32361597999</v>
-      </c>
-      <c r="C222">
-        <v>5262.809819900227</v>
-      </c>
-      <c r="D222">
-        <v>4834.547139313618</v>
-      </c>
-      <c r="E222">
-        <v>607.6795919961141</v>
-      </c>
-      <c r="F222">
-        <v>1653.838222674043</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>563.9</v>
-      </c>
-      <c r="B223">
-        <v>26872.64644107915</v>
-      </c>
-      <c r="C223">
-        <v>7469.945477558282</v>
-      </c>
-      <c r="D223">
-        <v>3692.640568379007</v>
-      </c>
-      <c r="E223">
-        <v>1157.631889723377</v>
-      </c>
-      <c r="F223">
-        <v>756.3976716669586</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>566.5</v>
-      </c>
-      <c r="B224">
-        <v>18188.40267814772</v>
-      </c>
-      <c r="C224">
-        <v>4052.794481867367</v>
-      </c>
-      <c r="D224">
-        <v>2674.833140365954</v>
-      </c>
-      <c r="E224">
-        <v>1205.404052371587</v>
-      </c>
-      <c r="F224">
-        <v>506.6822661806893</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>568.7</v>
-      </c>
-      <c r="B225">
-        <v>14955.5810325904</v>
-      </c>
-      <c r="C225">
-        <v>5561.359023975056</v>
-      </c>
-      <c r="D225">
-        <v>3648.226855124114</v>
-      </c>
-      <c r="E225">
-        <v>1562.749728458527</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>571</v>
-      </c>
-      <c r="B226">
-        <v>28284.90385768955</v>
-      </c>
-      <c r="C226">
-        <v>7078.494681633114</v>
-      </c>
-      <c r="D226">
-        <v>4246.320284189504</v>
-      </c>
-      <c r="E226">
-        <v>462.7020261857906</v>
-      </c>
-      <c r="F226">
-        <v>452.559448992916</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>573.2</v>
-      </c>
-      <c r="B227">
-        <v>28112.08221213223</v>
-      </c>
-      <c r="C227">
-        <v>3837.059223740801</v>
-      </c>
-      <c r="D227">
-        <v>869.7139989476782</v>
-      </c>
-      <c r="E227">
-        <v>970.04770227273</v>
-      </c>
-      <c r="F227">
-        <v>575.8771828122265</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>575.5</v>
-      </c>
-      <c r="B228">
-        <v>32161.40503723139</v>
-      </c>
-      <c r="C228">
-        <v>3964.194881398859</v>
-      </c>
-      <c r="D228">
-        <v>287.8074280130531</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>758.4366318051425</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>578.1</v>
-      </c>
-      <c r="B229">
-        <v>28997.16127429996</v>
-      </c>
-      <c r="C229">
-        <v>6167.043885707972</v>
-      </c>
-      <c r="D229">
-        <v>0</v>
-      </c>
-      <c r="E229">
-        <v>1007.772162648203</v>
-      </c>
-      <c r="F229">
-        <v>648.7212263188735</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>580.3</v>
-      </c>
-      <c r="B230">
-        <v>22214.33962874264</v>
-      </c>
-      <c r="C230">
-        <v>5065.608427815695</v>
-      </c>
-      <c r="D230">
-        <v>1663.393714758196</v>
-      </c>
-      <c r="E230">
-        <v>1055.117838735154</v>
-      </c>
-      <c r="F230">
-        <v>452.0389601381848</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>582.6</v>
-      </c>
-      <c r="B231">
-        <v>25683.6624538418</v>
-      </c>
-      <c r="C231">
-        <v>3752.744085473717</v>
-      </c>
-      <c r="D231">
-        <v>1361.48714382355</v>
-      </c>
-      <c r="E231">
-        <v>1665.070136462407</v>
-      </c>
-      <c r="F231">
-        <v>714.5984091311004</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>584.9</v>
-      </c>
-      <c r="B232">
-        <v>22912.98527894083</v>
-      </c>
-      <c r="C232">
-        <v>5929.879743131776</v>
-      </c>
-      <c r="D232">
-        <v>469.5805728889391</v>
-      </c>
-      <c r="E232">
-        <v>915.0224341896774</v>
-      </c>
-      <c r="F232">
-        <v>907.1578581240165</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>587.1</v>
-      </c>
-      <c r="B233">
-        <v>17590.16363338351</v>
-      </c>
-      <c r="C233">
-        <v>4178.444285239463</v>
-      </c>
-      <c r="D233">
-        <v>2152.974287647114</v>
-      </c>
-      <c r="E233">
-        <v>572.3681102766168</v>
-      </c>
-      <c r="F233">
-        <v>780.4755919433267</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>589.7</v>
-      </c>
-      <c r="B234">
-        <v>20975.91987045209</v>
-      </c>
-      <c r="C234">
-        <v>4831.293289548549</v>
-      </c>
-      <c r="D234">
-        <v>1835.166859634046</v>
-      </c>
-      <c r="E234">
-        <v>560.1402729248202</v>
-      </c>
-      <c r="F234">
-        <v>460.7601864570574</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>592</v>
-      </c>
-      <c r="B235">
-        <v>20945.24269555124</v>
-      </c>
-      <c r="C235">
-        <v>3368.428947206633</v>
-      </c>
-      <c r="D235">
-        <v>3323.260288699435</v>
-      </c>
-      <c r="E235">
-        <v>870.0925706520829</v>
-      </c>
-      <c r="F235">
-        <v>343.3196354499734</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>594.2</v>
-      </c>
-      <c r="B236">
-        <v>15162.42104999392</v>
-      </c>
-      <c r="C236">
-        <v>4696.993489314295</v>
-      </c>
-      <c r="D236">
-        <v>276.6540034576028</v>
-      </c>
-      <c r="E236">
-        <v>697.4382467390315</v>
-      </c>
-      <c r="F236">
-        <v>336.6373692692841</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="1">
-        <v>596.4</v>
-      </c>
-      <c r="B237">
-        <v>22669.5994044366</v>
-      </c>
-      <c r="C237">
-        <v>2195.55803142202</v>
-      </c>
-      <c r="D237">
-        <v>370.0477182158065</v>
-      </c>
-      <c r="E237">
-        <v>564.78392282598</v>
-      </c>
-      <c r="F237">
-        <v>409.9551030885954</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="1">
-        <v>599</v>
-      </c>
-      <c r="B238">
-        <v>18195.35564150518</v>
-      </c>
-      <c r="C238">
-        <v>3898.407035731131</v>
-      </c>
-      <c r="D238">
-        <v>432.2402902027388</v>
-      </c>
-      <c r="E238">
-        <v>932.5560854741834</v>
-      </c>
-      <c r="F238">
-        <v>830.2396976023258</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="1">
-        <v>601.3</v>
-      </c>
-      <c r="B239">
-        <v>21904.67846660433</v>
-      </c>
-      <c r="C239">
-        <v>325.5426933891895</v>
-      </c>
-      <c r="D239">
-        <v>1420.333719268128</v>
-      </c>
-      <c r="E239">
-        <v>1042.508383201446</v>
-      </c>
-      <c r="F239">
-        <v>622.7991465952427</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>603.5</v>
-      </c>
-      <c r="B240">
-        <v>10521.85682104701</v>
-      </c>
-      <c r="C240">
-        <v>804.1072354968774</v>
-      </c>
-      <c r="D240">
-        <v>1463.727434026303</v>
-      </c>
-      <c r="E240">
-        <v>699.8540592883946</v>
-      </c>
-      <c r="F240">
-        <v>676.116880414553</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>605.8</v>
-      </c>
-      <c r="B241">
-        <v>15491.17964614616</v>
-      </c>
-      <c r="C241">
-        <v>2321.242893154932</v>
-      </c>
-      <c r="D241">
-        <v>2311.820863091671</v>
-      </c>
-      <c r="E241">
-        <v>919.8063570156573</v>
-      </c>
-      <c r="F241">
-        <v>528.676329407469</v>
+        <v>909.3139327811232</v>
       </c>
     </row>
   </sheetData>
